--- a/500all/speech_level/speeches_CHRG-114hhrg95632.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95632.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy. We will now begin by welcoming everyone to this morning's hearing on ``Sanctuary Cities: a Threat To Public Safety.'' And I will recognize myself for an opening statement.    I want to thank all of our witnesses for being here today, and I want to express, Mr. Steinle, to you my profound sympathy to you and to Kate's mother, to her brother, and all of your family, and those who cherished her, for the tragic loss of your beautiful daughter.    The preeminent function of government is to provide for the safety and security of the law-abiding public. It is among the chief reasons we consent to be governed and bound by a collection of laws. We want those that we love to be protected, so we abide by the law in the hopes that others will feel similarly bound.    What makes this Nation different is our respect for and adherence to the law because the law is the greatest unifying force in our culture, and it is the great equalizing force in our culture. In fact, we think so highly of the law that we make aspiring citizens take an oath that contains six separate references to the law.    This system of laws failed Kate Steinle as it has failed others like her, and this is more than an academic discussion about prosecutorial discretion. It is more than political pandering to certain voting constituencies. It is more than the supremacy clause or the commandeering clause. It is quite literally life and death.    And this is the real world where everyone is not a DREAMer, and everyone is not a valedictorian. There are criminals motivated by malice and a conscious disregard for the lives of others, and there are cities more interested in providing a sanctuary for those criminals than they are providing a sanctuary for their own law-abiding citizens.    I have been on this Committee, Mr. Chairman, for almost 5 years now, and I have listened closely to the debate over immigration. You do not hear many witnesses called by our colleagues on the other side to talk about law enforcement or background checks or enforcement mechanisms. You do hear certain phrases repeated with catatonic frequency as if rote repetition will somehow make it true.    You hear phrases like ``functional control over the board'' uttered by witnesses who are uniquely well-positioned to know better. You hear citizenship for 11 million undocumented aspiring Americans as if 11 million of any category could pass a background check. You hear arguments against empowering State and local law enforcement to assist Federal authorities, and those are the most illogical arguments of all.    We trust State and local law enforcement to investigate all manner of crime from murder, to sexual assault, to kidnapping, to narcotics trafficking, but God forbid they help us enforce immigration laws. State and local law enforcement are good enough to provide protection for Members of Congress in this city and when they are back home, but somehow, some way, all that changes when it comes to the issue of immigration. They are no longer smart enough to enforce Federal immigration law.    And even though some do not trust State and local law enforcement to enforce Federal law, they are more than happy to allow State and local officials to openly ignore that same Federal immigration law, which brings us to that benign-sounding phrase, ``sanctuary cities.'' The definition of ``sanctuary'' is a place of refuge or safety. It almost sounds utopian, a place of refuge, a place of safety.    Refuge for whom? Safety for whom? For a young woman walking on a pier with her father, or for a career recidivist like Juan Francisco Lopez-Sanchez, who had a quarter century's worth of lawlessness dating all the way back to 1991. He committed local, State, and Federal crimes in at least 5 separate States. He was deported 5 times, and each time had so little regard for the law that he reentered that border that we are supposed to have functional control over.    His procedural history is every bit as disturbing. In May of 2011, this defendant was convicted and sentenced to 46 months imprisonment for illegal reentry again. At the conclusion of that sentence, he was released from the Bureau of Prisons to a known sanctuary jurisdiction for the ostensible prosecution of an old drug case. And, of course, San Francisco did not prosecute that old drug case. They dismissed it, which surprises exactly no one.    And then they released this defendant. They did not return him to the Bureau of Prisons or to Federal probation. They did not honor the detainer placed on him by ICE. They released someone they knew was not legally in this country and that had a criminal history dating back to the early 1990's.    And we are given a litany of excuses for policies like this. We are told that we need policies like the one in San Francisco so people will cooperate with law enforcement. And I want you to consider how utterly illogical that is. We are releasing known criminals back into society so society will help us catch known criminals. And, of course, some of our friends on the other side say all of this is necessary so folks will, to use the President's word, ``come forward'' or ``get on the books,'' or ``get right with the law.''    I want you to ask yourself, what in this defendant's background leads you to believe that he would ever come forward or get on the books or get right with the law? He was already on the books. Better than that, he was in jail, and he was there because he had not complied with a single damn thing we had asked him to do.    So are we supposed to catch him again after San Francisco releases him? Do we wait on another victim? Is that the strategy behind sanctuary cities; release them and then wait until they victimize someone else? Is that what we mean by coming forward?    The President and others constantly talk about comprehensive immigration reform, but they are very light on the details when it comes to enforcement and background checks. They just fundamentally fail to understand that border security, both borders by the way--both of them--and internal security are fundamental conditions precedent to fixing our broken immigration system.    Mr. Steinle, about a year ago there was a precious little girl waiting on the steps of the Capitol for me after votes, and I knew what was coming, so I could not walk past her. I knew or suspected that she would repeat those phrases that so-called advocates teach children to repeat to Members of Congress. But I had to stop as any father of a daughter would, and I stopped and the little girl said, I want to pray for you, one of the stuff that the advocates tell the children to say. She just said, I want to pray for you.    So I picked her up, and in a mixture of Spanish and English she told God that she was not here legally, but she wanted to stay. And everyone that I know would want to help that little girl. But everyone also should have wanted to help your little girl, Mr. Steinle. She was not 5, but she is still your daughter, and this country should have protected her.    And I hope you are given answers. I hope the politicians in San Francisco will explain to you why they thought it was more important to provide a sanctuary to Juan Francisco Lopez-Sanchez than they did to provide a sanctuary for your daughter. And I hope this Administration will tell you why a Bureau of Prisons released a five-time illegal entrant to a known sanctuary city for a piddling damn drug charge that wound up being dismissed. And I hope San Francisco will tell you why they released a convicted felon rather than honor the detainer in place, or just simply return him to ICE. You deserve those answers, and you deserve to know that your daughter's sacrifice had meaning and purpose, and that her death will serve to save the lives of other people.    When Trayvon Martin was shot and even before our criminal justice system had acted, the President said that could have been his son. For those of us that have daughters, which includes the President, your daughter could have been our daughter.    I used to have a quote on the wall of my old office at the courthouse, and it was given to me by a victim advocate. It is from a Greek philosopher named Solon. I will paraphrase it, but this is pretty close. He was asked what city was the best one to live in, and he answered that city where those who are not injured by crime. Take up the cause of those who are as if it had been them.    That is the kind of country we should want, too, one where we do not have to lose our daughters, to feel the pain that you feel. And we should not have to lose daughters to know that no one else should have to feel like you feel this morning.    With that, I would recognize the Ranking Member.</t>
   </si>
   <si>
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. First, I would like to welcome all of the witnesses to the hearing today, but I especially want to welcome members of the Steinle family and to extend my heartfelt condolences to you. As a parent, I can only imagine what you are going through, and any time an innocent person is lost to violence, I think it is important that we all stop and consider what steps could we take, what policies and processes, procedures, and rules, and laws could be altered so that we would have a safer community, so that that tragedy would not occur.    And so, it is important the process that we are going through at this time. A hearing like this offers Members and the public an opportunity to learn more about the issue, and I hope that we can work together collaboratively to address some of the problems we were sent here to Washington to solve.    Now, I am eager to hear what each witness has to say. I must note that last night Chairman Goodlatte and I testified before the Rules Committee on H.R. 3009, a bill that has already been decided is the answer apparently to this. And I would note that if 3009 had been enacted into law, it would not have had any impact on these circumstances that resulted in the death of your daughter. In addition to that, major law enforcement associations, like the Fraternal Order of Police, the Major Counties Sheriffs Association, and others are telling us that that bill would actually make us less safe, and they all oppose that bill.    I do think that the testimony of the police chief of Dayton, Ohio I hope will be instructive because I have not heard a single person who suggests that it was wise, appropriate, or even legal for the sheriff in San Francisco to have released the individual who is charged with killing your daughter. Having said that, there are police agencies around the United States who believe that it makes our communities less safe to inquire as to the immigration status in every case. For example, the domestic violence organizations have contacted us to say that if there is a call for a domestic violence situation and the individuals who are calling know that they and everyone in their household will be interrogated as to their status, a family where there is mixed status will not call for domestic violence. So we have to be mindful of those issues, the entirety of the situation that we face.    I would ask unanimous consent to put into the record a bipartisan letter that was sent to appropriators just 4 months ago signed by 162 Members of Congress talking about the importance of the Byrne JAG and COPS grants for policing in this country.</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman, and thank you for holding this hearing and for the work that you have dedicated to this issue for the last 2 years.    I want to thank all of our witnesses for being here today. I think you all have compelling testimony, but I especially want to thank Mr. Steinle, who I just had the opportunity to meet. I told him that the fact that he would come here 3 weeks after the tragic death of his daughter to me shows courage and determination to make sure that other lives are saved as a result of this. So you have my deepest sympathy, but also my deepest appreciation and admiration for coming here today. I also told Mr. Steinle that my son lives in San Francisco. I have been on that very pier with my son and my daughter, and we want to make sure that everybody is safe.    Last week, this Committee held a Department of Homeland Security oversight hearing with Secretary Johnson as the sole witness. Many Members focused their questions on sanctuary cities, Immigration and Customs Enforcement detainers, and criminal aliens. So we have heard much of what the Administration has to say about these issues. But today we will hear perspectives on sanctuary policies that are distinctly different than what Secretary Johnson had to offer, and I look forward to that testimony.    I am honored to have the family of Kate Steinle here and Mr. Steinle testifying. And, of course, their perspective on this issue is one that we wish they never had to contemplate. And the same is true for the countless other victims of criminal aliens that this Committee has heard from the past several years, people like Jamiel and Anita Shaw, whose son was murdered by a criminal alien gang member who has been released from jail by Los Angeles law enforcement pursuant to Los Angeles sanctuary policy. And people like Sabine Durden, whose son, Dominic, was killed in a car accident by an illegal immigrant who had two prior DUI convictions. Ms. Durden is here with us this morning, and I thank you very much for being here today as well.    These tragedies were preventable. This Administration must reverse its wholesale and unprecedented shutdown of immigration enforcement. Because the result of that shutdown is that millions of unlawful and criminal aliens are not considered high enough priorities for deportation, they are left in American communities. In fact, in the last year, the number of administrative arrests of criminal aliens has fallen by a third, and the Department continues to release thousands of such aliens onto our streets. ICE admitted to releasing 30,558 aliens with criminal convictions in 2014.    Last week we publicized ICE data showing the recidivist activity of those criminal aliens ICE released in 2014. Already 1,423 have been convicted of new crimes like vehicular homicide, domestic violence, sexual assault, DUI, burglary, and assault, among many others. And no doubt, even more have been arrested for, and charged with, additional crimes.    Secretary Johnson's solution, the Priorities Enforcement Program, is a failure. Even the Secretary admitted last week that five of ICE's Priority A, meaning the worst offending jurisdictions, have refused to participate in PEP. And while 33 of the 49 Priority A jurisdictions have apparently agreed to participate, it remains to be seen how fully they will participate. The Administration has admitted that when it says a jurisdiction has agreed to participate, that could encompass compliance with only a very small part of PEP.    There is a clear answer to this problem: compliance with ICE detainers must be mandatory. Jurisdictions that violate that policy must suffer consequences. And, most importantly, Congress must no longer allow the President the ability to simply turn off the immigration enforcement switch.    This Committee has passed a bill that addresses all three of those priorities, H.R. 1148, the ``Michael Davis, Jr. and Danny Oliver in Honor of State and Local Law Enforcement Act'' introduced by Chairman Gowdy. While I look forward to consideration of H.R. 1148 on the floor later today, the House will vote on legislation to address one part of the solution to sanctuary cities. That bill is a good first step, and I will support it. I also appreciate the Majority Leader's commitment to me that we will take additional action to ensure compliance with our immigration laws in the future.    Today I look forward to hearing the witnesses' thoughts on how to prevent sanctuary policies and the overwhelming number of crimes committed pursuant to these policies. And I also want to acknowledge that Mrs. Wilkerson, I think, is here this morning as well. She testified before the Senate hearing on Tuesday.    So I want to make it clear to everyone that this Committee is committed to addressing this problem in a comprehensive way, and we have taken the first step by bringing the bill to the floor today. But that should not be the end; that should be the beginning of our efforts to make sure that American citizens are safe in their cities around the country.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -100,36 +91,24 @@
     <t xml:space="preserve">    Mr. Gowdy. May the record reflect all the witnesses answered in the affirmative.    I will introduce you en banc and then recognize you individually for your opening statement.    From left to right, Mr. Jim Steinle of Pleasanton, California is the father of Kate Steinle who was murdered on July the 1, 2015 by a recidivist criminal alien who had been released from the San Francisco Sheriff's Department.    Sheriff Scott Jones started with Sacramento County Sheriff's Department in 1989 as a security officer at their brand new main jail. As a deputy he worked in corrections patrol, legal affairs. He was promoted through the ranks to sergeant, lieutenant, and finally captain. As sheriff, he instituted an annual strategic planning process that prioritizes projects and continues to drive the department forward.    He holds a bachelor's degree in criminal justice from CSU Sacramento and a juris doctor degree from Lincoln Law School.    Ms. Jessica Vaughan currently serves as the director of policy studies for the Center for Immigration Studies. She has been with the Center since 1992 where she has experience in immigration policy and operations topics such as visa programs, immigration benefits, and immigration law enforcement. And, in addition, she is an instructor for senior law enforcement, training seminars at Northwestern University Center for Public Safety in Illinois.    She has a master's degree from Georgetown and a bachelors in international studies at Washington College in Maryland.    Finally, Chief Richard Biehl joined the Dayton Police Department as Director in Chief on January 28, 2008. He has more than 35 years of experience in law enforcement. He served on the Cincinnati Police Department from 1980 to 2004 in positions including officer, sergeant, lieutenant, captain, and ultimately assistant police chief.    Welcome to all of you. Mr. Steinle, you are recognized for your opening remarks.</t>
   </si>
   <si>
-    <t>Steinle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Steinle. Thank you. First of all, I would like to thank the Members of this Committee for the honor to speak to you about our daughter, Kate. All children are special in their own way. Kate was special in the way she connected with people. We called it the ``Kate effect.''    Kate was beautiful, she was kind, she was loving and deep in faith. Kate had a special soul, a kind heart, the most contagious laugh, and a smile that would light up a room. Kate loved to travel and spend time with her friends, and, most of all, spend time with her family. In fact, the day she was killed we were walking arm in arm on Pier 14 in San Francisco enjoying a wonderful day together. Suddenly a shot rang out, Kate fell, looked at me and said, ``Help me, Dad.'' Those were the last words I will ever hear from my daughter.    The day Kate died, she changed her Facebook cover photo to a saying that said, ``Whatever is good for your soul, do that.'' This quote truly describes her spirit. After graduating from Cal Poly San Luis Obispo, she went to work for a title company and saved her money so she could travel the world. She traveled to Spain, Thailand, Amsterdam, Dubai, South Africa, just to name a few. She even made her way to the slums of Mumbai, India to reach out to her friend's mother's nanny. She spent time there with the woman's family and came home a changed person.    Everywhere Kate went throughout the world she shined the light of a good citizen of the United States of America. Unfortunately, due to disjointed laws and basic incompetence on many levels, the U.S. has suffered a self-inflicted wound in the murder of our daughter by the hand of a person that should never have been on the streets of this country.    I say this because the alleged murder is an undocumented immigrant who has been convicted of seven felonies in the U.S. and already deported five times. Yet in March of this year, he was released from jail to stay here freely because of legal loopholes.    It is unbelievable to see so many innocent Americans have been killed by undocumented immigrant felons in recent years. In fact, we recently came across a statistic that says between 2010 and 2014, 121 criminal aliens who had an active deportation case at the time of release were subsequently charged with homicide-related offenses. Think about that: 121 times over 4 years an illegal immigrant, a violent illegal immigrant, with prior criminal convictions that later went on to be charged with murder when they should have been deported. That is one every 12 days.    Our family realizes the complexities of immigration laws. However, we feel strongly that some legislation should be discussed, enacted, or changed to take these undocumented immigrant felons off our streets for good. We would be proud to see Kate's name associated with some of this new legislation. We feel that if Kate's law saves one daughter, one son, a father or mother, Kate's death will not be in vain.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Steinle.    Sheriff Jones?</t>
   </si>
   <si>
-    <t>Jones</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Sheriff Jones. Chairman Gowdy and Members, thank for you the invitation to speak with you this morning. I am Scott Jones and I am the Sheriff of Sacramento County, one of the largest sheriffs departments in the country. And in Sacramento County, like the rest of California and many communities, we have a very diverse population, including a large population of undocumented immigrants. They are a vital, important, and valued part of our community.    Unfortunately, there is also a percentage of that community that chooses to victimize others as a way of life in sometimes heinous ways. Unfortunately, unlike their American counterparts, I cannot protect my community from these offenders.    Secure Communities went a good way in the right direction by allowing fingerprints to be processed by ICE. Now, keep in mind we do not have access to their database, so we do not know status. But they did a good job of notifying their local ICE offices of the folks that they wanted to take custody of. Because they cannot be in every jail 24 hours a day, they served the jails with a detainer that says hold this person for a brief time until we get down to the jail and take custody of this person that we have already identified should not be released. It worked well, and few people fell through the cracks.    Even under the new watered down version of Secure Communities, the Priority Enforcement Program, it is dependent on detainers to be functional. I can tell you that the detainer system has failed, and consequently and necessarily then the Priority Enforcement Program is also failing.    Even notwithstanding the fact that the Federal Government allows and encourages States to pass their own immigration laws, though they have no legal authority to do so--it is a plenary and exclusive function of the Federal Government--they are allowed to so without consequence or challenge because it is much easier for that to happen. So we consequently have 50 different immigration policies that are constantly evolving.    The recent TRUST Act in California severely limited the types of crimes for which we can honor detainers. But then came a lowly magistrate judge in Clackamas County, Oregon who held that in Clackamas County only that detainers were unlawful. I and other sheriffs came back and talked with ICE administrators and begged, pleaded with them to stand with us so we could stand with our ICE partners to keep our communities safe and honor detainers at least for the ones that our State laws allowed because they already said they would not contravene that. They said, no, that it would not happen during this Administration.    And in a leadership vacuum, someone will fill that space, and that someone was the ACLU who seized on the opportunity to send a letter to every sheriff in this country telling them that if they honored any ICE detainers, not just the ones that were allowed by State law, but any ICE detainers, they would be sued. Again, we pleaded with ICE to no avail. So now, over 200 jurisdictions in this country do not honor ICE detainers. People are simply released without any scrutiny from ICE at all.    California has become a de facto sanctuary State, and in short order this entire country will be a de facto sanctuary country. But that is not the same as sanctuary cities that pass laws that overtly and conspicuously violate Federal law. They, too, are allowed to do so. I have it on good authority that the San Francisco Sheriff's Office has not contacted ICE for any reason in over 3 years despite being served with many detainers during that time period. It is deplorable and reprehensible. And you will find no shortage of police chiefs willing to come here and testify that this type of legislation named after in part Danny Oliver, the deputy of mine that got killed last October 24th by someone removed 4 times, that it is going to be bad for our communities, that it is going to erode trust in our immigrant communities, that we should not be enforcing immigration law. It should be a function of the Federal Government. And I cannot argue with any of that. I agree with every little sentiment that is expressed.    I do not care. I do not have any desire to enforce immigration law, but that presupposes that there are people that are concerned with enforcing immigration law, and that is not happening. And notice I mentioned police chiefs willing to come here and testify. I defy you to find a sheriff that will come here and testify that some of this legislation is not a good idea, because while we are both singularly concerned with building trust in our communities, only the sheriffs, because of their roles in corrections in this country, are concerned with the dire consequence of releasing someone they know who should not be released, that they know ICE already wants and that society should be protected from, and not to be able to hold them for even 1 minute while ICE can come down to the jail and take custody of them.    Sheriffs are accountable to the people. They are elected. We have our own political voice. There is a reason, a very conspicuous reason. Even though our large role in corrections in this country that there is no sheriff representation on the President's 21st Century Task Force on Policing. And that is it.    Even without national immigration reform, there can be solutions. There can be legislative or stroke of pen changes by policy that will make this part better, to make detainers lawful and mandatory on local detention facilities so we can cooperate with our ICE partners despite what the policymakers in Washington have.    I hope you have had an opportunity to review the information that I have presented prior to this hearing. It lists some of those suggestions. I remain deeply committed to assisting in whatever way I can in this issue, and I look forward to exploring any of those issues further through any of your questions you may have. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Sheriff.    Ms. Vaughan?</t>
   </si>
   <si>
-    <t>Vaughan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Vaughan. Thank you very much for the opportunity to testify on the public safety problems created when local governments adopt policies that obstruct immigration enforcement, commonly known as sanctuary policies.    According to an ICE report that I obtained through a FOIA request, as of October 2014, there were 276 such jurisdictions in the United States. Over an 8-month period in 2014, more than 8,100 criminal aliens who were the subject of detainers were instead released back into the streets as a result of these non-cooperation policies. Approximately two-thirds of these individuals already had a serious criminal history as defined by ICE as the time of their release. Nearly 1,900 of them subsequently reoffended just in that 8-month period. Only 28 percent of them have been re-apprehended by ICE.    Now, I have just reeled a lot of statistics that I know sometimes make some people's eyes glaze over, but as someone who also has lost a close family member--my brother--because of a negligent act by a sworn law enforcement officer and also a bad policy--and I should add that the offense that was committed was one that some on this Committee would call a minor traffic offense that killed my brother--I have to say that it is really not okay to refer to these tragedies as a little thing, as one Member of this Committee has.    I have a friend. Her name is Heather. A few years ago she was carjacked at knife point and taken to Roger Williams Park in Providence, Rhode Island and raped repeatedly by an illegal alien who had been in the custody of the Providence Police Department more than once, but was released because of then Mayor Cicilline's sanctuary policies. This was not a little thing.    I have other friends, some in this room, who can tell similar stories, and I am afraid that Congress is about to try to get away with doing just a little thing just by barring funding from these sanctuary jurisdictions, some funding. And I am asking you today to not be satisfied with just doing a little thing. This big problem requires you to have the courage to do a bigger thing. You have the language in the Davis-Oliver Act. Please do this for these families who have lost so much.    Sanctuary policies do nothing to build trust between immigrant communities and local law enforcement. They do not improve access to law enforcement services for immigrants, nor have they been shown to increase the likelihood that more immigrant crime victims will report crimes. On the contrary, they destroy the trust of the community at large that the laws will be faithfully enforced to preserve the quality of life for all.    Despite the widespread public outrage at the San Francisco sheriff's policies that caused the release of a man who went on to kill Kathryn Steinle, it is clear that some jurisdictions will not budge from their criminal alien sanctuary policies. To make matters worse, the Obama administration's new Priority Enforcement Program explicitly allows local jurisdictions to obstruct ICE, and also establishes the entire country as a sanctuary for nearly all illegal aliens by further narrowing enforcement priorities and severely restricting the ability of ICE officers to deport removable aliens, including many with criminal records.    Therefore, Congress must step in to correct the situation by clarifying in the law that local law enforcement agencies are expected to comply with ICE detainers; establishing that local law enforcement agencies will have qualified immunity when cooperating in good faith; by implementing sanctions for those sanctuary jurisdictions that continue to refuse to cooperate; and by reversing the Obama administration's non-enforcement policies.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Ms. Vaughan.    Chief Biehl?</t>
   </si>
   <si>
-    <t>Biehl</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chief Biehl. Chairman Gowdy, Ranking Member Lofgren, and Members of the Committee, thank you for the opportunity to appear before you today to provide testimony on this important issue.    I am Richard Biehl, the director and chief of police of Dayton, Ohio Police Department. I have had the honor of serving in this position since January 28th of 2008. Further, I have spent the last 35 years working to improve public safety in urban areas. Through that experience, I know that effective public safety, even when grounded in evidence-based best practices, is crucially dependent upon community engagement and support.    First, I would like to express my condolences to the Steinle family for their loss and to Sheriff Jones for the loss of his officer last year. Sadly, I attended the funeral of Cincinnati Police Officer Sonny Kim less than a month ago killed in the line of duty. He was my 9th in my career.    I happened to read a Proverb a couple of days ago, and I think it is quite appropriate to the conversation today. ``Our passions are the winds that propel our vessel. Our reason is the pilot that steers her. Without winds, the vessel would not move; without a pilot she would be lost.''    I know we are here to discuss the topic of sanctuary cities and the role in public safety. As we have the conversation about sanctuary cities, the specifics of how we define them are important, and as we think about how to best protect the residents and keep our communities safe, it is crucial that we do not undermine proven community policing practices.    First, I would like to explain Dayton's policy regarding cooperation with Federal immigration enforcement efforts. Our policy states that the Dayton Police Department shall not stop, investigate, or arrest a person solely because of their real or perceived immigration status. Investigation of a person's immigration status must be done only for the most serious offenders. This approach has served the Dayton community well. During the time these policies have been in place, Dayton has experienced significant reductions in crime. This is an important point I want to convey to you all.    As chief of police, my primary concern is with the safety all residents, and in Dayton we have seen a reduction in crime in our city. Our immigration law enforcement approach allows us to focus on true threats to public safety while ensuring that our immigrant communities maintain necessary trust to report criminal incidents to our Department.    I am concerned that proposed legislation, such as H.R. 3009, would coerce local law enforcement departments to make decisions that undermine our ability to keep our community safe. The Dayton Police Department, like many agencies throughout the State of Ohio, is facing critical staffing shortages that are already creating potential challenges for fulfilling its public safety responsibilities. Making local police departments fulfill immigrant enforcement responsibilities will only make it even more challenging.    I have seen the positive effects of community policing in my city. Dayton as a population is only 4 percent foreign born. Given its demographics, it may appear an unlikely place for a national immigration policy to be of much concern, much less an issue impacting local policing. But in my time as police chief, I have repeatedly witnessed how significant the issue is to our community.    Within a month of beginning my service as Dayton Police Chief, I was approached by multiple community advocates who expressed concerns that the Latino community members were being racially profiled. Allegations like this are deeply troubling to me. Our cities are safer when there is a sense of trust with our communities, including our immigrant communities. If families view law enforcement as a threat, or are fearful of dropping off their kids off at school, or walking around their neighborhood, no one benefits.    As I stated earlier, Dayton has seen a reduction in crime, not an increase, as a result of our community policing policies, such as investigating persons of immigration status only for the most serious offenses. I might add that we have bene recognized Statewide, nationally, and internationally for excellence in problem-only policing and community-oriented policing.    While immigration enforcement is a Federal responsibility, collaboration between State and local law enforcement and Federal immigration enforcement official can and should exist; but policies need to be clearly tailored to ensure community policing is not undermined. I agree we should deport serious violent offenders. No one wants violent crime in their community, because once we get beyond violent offenders that some localities and municipalities disagree over collaboration with Federal immigration enforcement officials.    I support the new Priority Enforcement Program initiative as the U.S. Department of Homeland Security has described it. PEP allows local jurisdictions to work with ICE to implement priorities concerning crimes that most negatively impact public safety in their communities.    I believe local law enforcement should comply with notifications as well as detainers as long as the detainers do not require jurisdictions to exceed their legal authority to hold persons beyond their current sentence and local charges. Requiring local law enforcement to hold persons for additional time must be supported by a legal basis; otherwise, it would ask local law enforcement to violate the U.S. Constitution, something none of us wants.    Before Congress tries to impose a legislative solution, I believe it should first allow PEP to be implemented. What everybody wants is a safe community. That is what I want, and that is what community members care about. We should not punish localities who are trying to promote trust in their communities. Collaboration with Federal immigration officials should exist for those serious and violent of criminals. That collaboration needs to be carefully tailored to address the priorities of local communities while ensuring community policing is not undermined, such as through the PEP Program.    A long-term solution requires Congress to come up with a fix for a broken immigration system and clarify immigration enforcement responsibilities. Until that time, local community leaders will continue to implement practical solutions to promote public safety in our communities.    Thank you again for the opportunity to testify today. I am happy to answer any questions that you may have.</t>
   </si>
   <si>
@@ -139,9 +118,6 @@
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you all for being here. Sheriff Jones, in your written testimony you provide some suggestions for fixing our immediate problems between ICE and local law enforcement, including making detainers mandatory in local jails and having ICE share resources with localities to ensure effective enforcement. In your view, given the current politicized status of ICE's policies, what can be done to compel ICE to provide these resources to States and localities?</t>
   </si>
   <si>
@@ -358,9 +334,6 @@
     <t xml:space="preserve">    Mr. Goodlatte. Thank you very much. The Chair recognizes the gentleman from Illinois for his questions.</t>
   </si>
   <si>
-    <t>Gutierrez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gutierrez. Thank you, Mr. Chairman. I want to start off by expressing my deepest sympathies to the family of Kathryn Steinle. Her death is a senseless tragedy. I have two daughters of my own, and as a father I cannot even begin to imagine the pain that her parents are going through. I am truly very sorry for your loss.    I am often criticized by my supporters because I do not have a soft spot for immigrant criminals no matter how small or how old their violations. Many argue that old convictions on drunk driving should be forgiven when determining whether someone should get deported or not. After all, they have already served their time and paid the consequences doled out by the criminal justice system.    I am not one of those people who argue for leniency for criminal immigrants. If you have serious criminal activity on your record, you have given up your USA privileges, and, generally speaking, I will not spend time or energy fighting for you. There are too many immigrants in this country who have never done anything wrong or never committed crimes, and I fight for them because they are part of what enriches America and what benefits all Americans.    The tragedy in San Francisco has generated an important dialogue regarding our communities, the police officers we have entrusted to protect us, and our broken immigration system. The fact is, he should have never been released to be on our streets again. Deported five times. It seems to me they caught him and deported him, and he should have been deported once again.    But there are serious questions about just how it is the local police should go about it. Nearly 300 jurisdictions have decided that they will not comply with a detainer from Homeland Security. The fact is the courts have said that they do not have to comply with those detainers, so what we need to figure out a way is to fix the broken immigration system that we have.    We spend a lot of time talking about Mr. Lopez. We do not spend a lot of time talking about people who enter this country through other borders--JFK, LAX--and commit crimes in this country from all over the world. So if we are truly going to protect our Nation, then we need to have a holistic approach to our broken immigration system.    It breaks my heart, Mr. Steinle, because I could have been walking on that pier, as I have, with both of my daughters, and I want to make sure that it does not happen. And I will continue to work with my colleagues on the other side of the aisle to fix our system, not in pieces and bits, but in its totality so that we can protect everybody in America, because indeed there are many people who want to fix our broken immigration system, and we need to do it in a holistic way.    Had we done it, we would have secure communities. We would have more. We would have verification of employment. We would have so many other means. We would have the ability to flush out the bad people. Why? Because we would let the good people come forward so that they cannot hide among the good people, the good people who live in my congressional district.    Now, I would like to take a moment, Mr. Chairman, to go back just for one moment. I know it might seem a little just, I do not know, unnecessary, but I would like to go back to a transcript at the end of the DHS hearing which you presided over, Mr. Gowdy, on July 14, 2015. I said, and this is the record, a transcript of the record of the July 14 hearing, which I stayed for the whole hearing, all 3 hours.</t>
   </si>
   <si>
@@ -376,9 +349,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. Mr. Steinle, thank you for your heartfelt testimony. It is sad that we need to be here today. The tragic murder of a beautiful young woman, your daughter, I think could have been prevented.    There are also thousands of other victims that did not need to be victims and would not have been victims if this Administration had enforced immigration laws. In my view, someone in this Administration probably should be arrested for negligent homicide or for any of another dozen crimes that are so frequently committed by illegal immigrants in this country who should not even be here.    In the case of the sanctuary cities, in just 8 months last year, they released almost 9,000 individuals who had been either arrested or convicted of serious crimes. Two-thirds of those 9,000 individuals had either committed or been arrested of serious crimes. In just the few months since they were released, one-quarter have committed other crimes. How many others are going to commit more crimes in the coming months, if one-quarter have already been arrested for other crimes.    This Administration last year released 30,000 criminal aliens; 2,000 under the Constitution they had to release, but 28,000 were released voluntarily by this Administration. They committed the worst crimes imaginable, thousands of crimes. So, if anything, you have got an Administration setting an example for sanctuary cities rather than trying to prevent sanctuary cities from trying to escape enforcing immigration laws. Sanctuary cities have increased exponentially under this Administration for one good reason, that is the Administration has done nothing to encourage municipalities and other jurisdictions from becoming sanctuary areas.    Many people claim that by being a sanctuary city or area or jurisdiction that that is somehow going to encourage illegal immigrants to report crimes. In my view, that is a specious argument, apocryphal. It is simply anecdotal, and I have never seen one shred of evidence that that is the case. It is just a simple assertion. And, in fact, every study I have seen, three out of three, have actually demonstrated just the opposite.    One major study found no decline in crime reporting by Hispanics after the implementation of a local police program to screen offenders for immigration status and to refer illegal immigrants to ICE for removal. Another academic survey found that by far the most commonly mentioned reason or not reporting a crime was a language barrier followed by cultural differences, not fear of being turned over to immigration authorities. And a third study found that significantly more removals of criminal aliens did not affect patterns of crime reporting in immigrant communities. It would be nice if the media would just once cite any of these studies. We only hear the other side.    My question to Ms. Vaughan, who has done some research on this subject, what do you think about the arguments made that somehow we are going to reduce crimes if we allow illegal immigrants to seek sanctuary and stay in this country in violation of current immigration laws? It seems to me it is very clear that more crimes are committed as a result of this policy, not fewer, but I would be interested in your opinion.</t>
   </si>
   <si>
@@ -394,9 +364,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. I thank the Chairman and the Ranking Member. Mr. Steinle, I add, again, as I know all Members have done, sympathy to you and your family. The sound of the violent act against your daughter simply penetrated around this Nation and beyond. I would also indicate, Chief Jones, that any time we lose someone in the line of duty, we, too, feel that pain. And frankly, we should try to find the solutions that we need to find.    So let me just offer a few thoughts in the instance of the facts in San Francisco, but I think it is important to join in my colleague from Texas and say that the laws that are on the books that are legal should be enforced as they relate to immigration issues in this country.    Those of us who support comprehensive immigration reform in no way view that reform as coddling criminals. They stand aside from the population of families, of students, of workers, who have come in this country to do good and not to do harm. And I think that when we get into a process of viewing one group of wanting not to abide by the immigration laws and another group as, then it is a misrepresentation of many of the American people who support our perspective.    And I might just add one thought. When you have deferred adjudication, that is actually a legal use that can be utilized under the term ``prosecutorial discretion,'' which ICE has and a number of other agencies have. It is not in this instance that I think that prosecutorial discretion played out in any way. It did when we speak of these young DREAMers that have been allowed to stay and go to school.    But what I do want to make note of is that I wish the clock could have been turned back on this terrible tragedy, and just make mention that the individual in question in your daughter's tragic circumstances was in the Federal Bureau of Prisons. They did hold this individual, and in March 2015 transferred him to the custody of the San Francisco's sheriff's office on a 20-year-old warrant for a marijuana charge with the expectation that the district attorney would pursue. We wish this had not happened, but what did not happen, which was a simple act, was a phone regarding Mr. Lopez-Sanchez's statement or status.    This bill dealing with the sanctuary cities and removing all opportunity for such cities, and frankly why do we not all agree that that name connotes a problem for many, because it suggests that you are giving sanctuary to everybody, has a right to stay under that umbrella, crooks, and criminals, and bad actors. And I want you to know that is absolutely not the case. It was utilized in a time when people came and did not speak English, and they were afraid of harm. And the only way that law enforcement officers could do their effective job was to be able to find out who did it.    So I want to ask--yes. I am not seeing the name, and I am looking for my list. I always like to call the name, but I will call it in a moment. But, yes, did I characterize if we use a different term other than ``sanctuary.'' We are not giving sanctuary to crooks and criminals, are we?</t>
   </si>
   <si>
@@ -433,9 +400,6 @@
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman. I thank the witnesses for your testimony today, and I continue to be amazed at the composure that you are able to bring to this issue, Mr. Steinle.    I wanted to inform you that some of us have been doing some things to try to move this Congress and this country in the right direction. I look back on testimony at this same table about the first year I came here in Congress, which would be around 2003 or 2004. The witnesses were testifying then of the number of people who died trying to get across the Arizona desert.    I asked a witness who was seated in your seat, Chief Biehl-- actually I asked each of the witnesses--he had an answer. I said, do you know how many Americans died at the hands of those who did make it into the United States. And his answer to me on September 11th was fresher in our minds than it is today. He said, I do not know the number, but I can tell you it would be in multiples of the victims of September 11.    And at that point, I began the effort to get a GAO study, which Ms. Lofgren cooperated with me on. In April of 2005 we got a study out. It was not quite apples to apples because we do not keep records well enough to have it exactly apples to apples. We refreshed that study again in March of 2011. I continued to bring amendments that cut off funding to sanctuary cities.    I never believed that there should be a separation between the levels of law enforcement in this country. I grew up in a law enforcement family, and I understand the interrelationships that are part of the testimony we have heard here today.    I wrote an op-ed last year dated August 26. It is in the National Review: ``The ACLU Reverses the Rule of Law.'' In it I objected to the ICE detainer decision. What has been missing here is that then acting director of ICE, Dan Ragsdale, issued a statement, a letter to the political jurisdictions on February 25, 2014, that said that ICE detainers are not mandatory as a matter of law. And so, this is initiated not by ICE reacting to the ACLU's threat of lawsuits. That letter from ICE, contributed to this tragedy that we have here before us. And they changed the word ``shall'' to now it is a suggestion.    The last sentence in that op-ed says, as I wrote, ``If we bow to the outrageous demand of the ACLU and ignore detainer orders, the price will be paid by thousands of crime victims who would otherwise have been protected by law.'' I think we have clearly heard today the effect of that, and we have heard it from expert testimony and very painful experiences.    Mr. Steinle, on the day that I saw the news of your daughter's death, long before I knew it would be a national story, I sent out a tweet, and it is dated July 3. And it says this, ``100 percent preventable crime. Just enforce the law. This will make you cry, too.'' And it happens every day. That was the Breitbart article from that day, and I sent out a subsequent tweet the following day, and it says this: ``This story happens every day in the U.S.''    And as of 2011, 25,064 criminal aliens were arrested for homicide in the United States. That is as of the end of 2010. How many since then? How big is that number? I look at the report and I do the math. That number comes to perhaps 48,000. I look at the crimes that have been committed by criminal aliens. This report, coupled with a subsequent report, brings us to a number in the area of 7,200,000 crimes for perhaps less than around half of that many as crime victims.    The devastation in this country because we refuse to enforce the law is breathtaking when you look at the statistics, and it is a tragedy that causes my heart to cry when I see what happened. And we knew it. This Congress knew it. I saw it 12 or 13 years ago. Many of us have seen it, but because of political desires people that gain a political advantage from having the political support, they are pandering to and catering to people that they know are lawbreakers. And this tragedy was 100 percent preventable.    I feel like I ought to ask a question, so I want to say, Sheriff Jones, I think your testimony has been very specific and well informed. And I would ask if you could comment on what I said about ICE detainer orders.</t>
   </si>
   <si>
@@ -451,9 +415,6 @@
     <t>412619</t>
   </si>
   <si>
-    <t>Ken Buck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Buck. Thank you, Mr. Chairman. Sheriff Jones, have long have you been with the sheriff's office? I heard earlier, but I forgot.</t>
   </si>
   <si>
@@ -571,9 +532,6 @@
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman. Mr. Steinle, as the father of two daughters, I cannot begin to comprehend the grief that you have endured over the last 3 weeks. And I would like to join all of my colleagues, many of them, in expressing my deepest condolences to you and to your entire family.    Can I ask you whether in the last 3 weeks President Obama has expressed his condolences to you?</t>
   </si>
   <si>
@@ -608,9 +566,6 @@
   </si>
   <si>
     <t>412636</t>
-  </si>
-  <si>
-    <t>David A. Trott</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Trott. I thank the Chair for organizing this hearing today, and all the witnesses for sharing their insight. I also want to thank my good friend from Texas for his question. Mr. Steinle, I was going to ask you if the President had reached out to you, but I decided not to do that because I assumed that, of course, he had done that. So I am sorry that has not happened.    I thank you for your courage in being here today, and I, too, hope this is just a beginning. And my question is to Ms. Vaughan. One of my concerns is I am going to support H.R. 3009. I am going to vote for it this afternoon. But it really has to be just the beginning because it targets about $800 million of money for law enforcement.    And my concern, and I would like you to speak to it, is it has to be just a first step because many times law enforcement, sheriffs, and police chiefs are following the directive of a city council, or a mayor, or a county commission. And I think we have to go further upstream and withhold TIGER grant money for road funding for sanctuary cities that decide to ignore Federal law. I think we have to make the repercussions of a sanctuary city deciding to ignore Federal law much more severe than H.R. 3009. Can you give you any suggestions or thoughts in that regard?</t>
@@ -1138,11 +1093,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1162,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1190,11 +1141,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1214,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1242,11 +1189,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1266,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1294,11 +1237,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1318,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1346,11 +1285,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1370,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1398,11 +1333,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1424,11 +1357,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1448,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1476,11 +1405,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1500,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1528,11 +1453,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1552,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1580,11 +1501,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1604,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1632,11 +1549,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1656,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1682,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1708,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1734,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1760,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1786,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1812,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
         <v>40</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1838,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1864,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1890,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1916,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1942,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1968,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1994,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2020,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2046,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2072,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2098,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2124,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2150,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2176,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2202,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2228,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2254,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2280,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2306,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2332,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2358,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2384,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2410,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2436,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2462,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2488,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2514,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2540,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2566,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2592,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2618,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2644,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
-      </c>
-      <c r="G60" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2672,11 +2509,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2696,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2724,11 +2557,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2748,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2776,11 +2605,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2800,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2826,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2852,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2878,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2904,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2930,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2956,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2982,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3008,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3034,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3060,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3086,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3112,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3138,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3164,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3190,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3216,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3242,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3268,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3294,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3320,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3346,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3372,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3398,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3424,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3450,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3476,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3502,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3528,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3554,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3580,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3606,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>114</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3634,11 +3397,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3658,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>114</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3686,11 +3445,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3710,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
-      </c>
-      <c r="G101" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3736,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3762,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
-      </c>
-      <c r="G103" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3790,11 +3541,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3814,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>125</v>
-      </c>
-      <c r="G105" t="s">
-        <v>126</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3840,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3866,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>125</v>
-      </c>
-      <c r="G107" t="s">
-        <v>126</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3892,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3918,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>125</v>
-      </c>
-      <c r="G109" t="s">
-        <v>126</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3946,11 +3685,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3970,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3998,11 +3733,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4022,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4048,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
+        <v>115</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
         <v>125</v>
-      </c>
-      <c r="G114" t="s">
-        <v>126</v>
-      </c>
-      <c r="H114" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4076,11 +3805,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4102,11 +3829,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4126,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>138</v>
-      </c>
-      <c r="G117" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4152,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4178,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
-      </c>
-      <c r="G119" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4206,11 +3925,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4230,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>144</v>
-      </c>
-      <c r="G121" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4256,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4282,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>144</v>
-      </c>
-      <c r="G123" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4308,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4334,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>144</v>
-      </c>
-      <c r="G125" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4360,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4386,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>144</v>
-      </c>
-      <c r="G127" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4412,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4438,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>144</v>
-      </c>
-      <c r="G129" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4464,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4490,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>144</v>
-      </c>
-      <c r="G131" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4516,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4542,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>144</v>
-      </c>
-      <c r="G133" t="s">
+        <v>132</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
         <v>145</v>
-      </c>
-      <c r="H133" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4568,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4594,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>144</v>
-      </c>
-      <c r="G135" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4620,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4646,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>144</v>
-      </c>
-      <c r="G137" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4672,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4698,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>144</v>
-      </c>
-      <c r="G139" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4724,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4750,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>144</v>
-      </c>
-      <c r="G141" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4776,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4802,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>144</v>
-      </c>
-      <c r="G143" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4828,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4854,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>144</v>
-      </c>
-      <c r="G145" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4880,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4906,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>144</v>
-      </c>
-      <c r="G147" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4932,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4958,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>144</v>
-      </c>
-      <c r="G149" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4984,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5010,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>144</v>
-      </c>
-      <c r="G151" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5036,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
-      </c>
-      <c r="G152" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5062,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>144</v>
-      </c>
-      <c r="G153" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5088,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
-      </c>
-      <c r="G154" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5114,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>144</v>
-      </c>
-      <c r="G155" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5140,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>21</v>
-      </c>
-      <c r="G156" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5166,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>144</v>
-      </c>
-      <c r="G157" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5192,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5218,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>144</v>
-      </c>
-      <c r="G159" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5246,11 +4885,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5270,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>184</v>
-      </c>
-      <c r="G161" t="s">
-        <v>185</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5296,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5322,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>184</v>
-      </c>
-      <c r="G163" t="s">
-        <v>185</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5348,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5374,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>184</v>
-      </c>
-      <c r="G165" t="s">
-        <v>185</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5400,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5426,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>184</v>
-      </c>
-      <c r="G167" t="s">
-        <v>185</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5454,11 +5077,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5478,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5504,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>184</v>
-      </c>
-      <c r="G170" t="s">
-        <v>185</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5532,11 +5149,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5556,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>197</v>
-      </c>
-      <c r="G172" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5582,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5608,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>197</v>
-      </c>
-      <c r="G174" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5634,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5660,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>197</v>
-      </c>
-      <c r="G176" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5686,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5712,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>197</v>
-      </c>
-      <c r="G178" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5738,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5764,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>197</v>
-      </c>
-      <c r="G180" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5790,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5816,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>197</v>
-      </c>
-      <c r="G182" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5844,11 +5437,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5868,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>21</v>
-      </c>
-      <c r="G184" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5896,11 +5485,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5920,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>21</v>
-      </c>
-      <c r="G186" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5948,11 +5533,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5972,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>21</v>
-      </c>
-      <c r="G188" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6000,11 +5581,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6024,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>21</v>
-      </c>
-      <c r="G190" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6052,11 +5629,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6076,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>21</v>
-      </c>
-      <c r="G192" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6104,11 +5677,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6128,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
-      </c>
-      <c r="G194" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6156,11 +5725,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6180,13 +5747,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>21</v>
-      </c>
-      <c r="G196" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6208,11 +5773,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6232,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
-      </c>
-      <c r="G198" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6260,11 +5821,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6284,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>21</v>
-      </c>
-      <c r="G200" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6312,11 +5869,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6336,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>21</v>
-      </c>
-      <c r="G202" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6364,11 +5917,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6388,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>21</v>
-      </c>
-      <c r="G204" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6416,11 +5965,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6440,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>21</v>
-      </c>
-      <c r="G206" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6468,11 +6013,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6494,11 +6037,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6518,13 +6059,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>21</v>
-      </c>
-      <c r="G209" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6546,11 +6085,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6570,13 +6107,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>21</v>
-      </c>
-      <c r="G211" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6598,11 +6133,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6622,13 +6155,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>14</v>
-      </c>
-      <c r="G213" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6648,13 +6179,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>14</v>
-      </c>
-      <c r="G214" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6676,11 +6205,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6700,13 +6227,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>21</v>
-      </c>
-      <c r="G216" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6728,11 +6253,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95632.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95632.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412473</t>
   </si>
   <si>
+    <t>Gowdy</t>
+  </si>
+  <si>
+    <t>Trey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gowdy. We will now begin by welcoming everyone to this morning's hearing on ``Sanctuary Cities: a Threat To Public Safety.'' And I will recognize myself for an opening statement.    I want to thank all of our witnesses for being here today, and I want to express, Mr. Steinle, to you my profound sympathy to you and to Kate's mother, to her brother, and all of your family, and those who cherished her, for the tragic loss of your beautiful daughter.    The preeminent function of government is to provide for the safety and security of the law-abiding public. It is among the chief reasons we consent to be governed and bound by a collection of laws. We want those that we love to be protected, so we abide by the law in the hopes that others will feel similarly bound.    What makes this Nation different is our respect for and adherence to the law because the law is the greatest unifying force in our culture, and it is the great equalizing force in our culture. In fact, we think so highly of the law that we make aspiring citizens take an oath that contains six separate references to the law.    This system of laws failed Kate Steinle as it has failed others like her, and this is more than an academic discussion about prosecutorial discretion. It is more than political pandering to certain voting constituencies. It is more than the supremacy clause or the commandeering clause. It is quite literally life and death.    And this is the real world where everyone is not a DREAMer, and everyone is not a valedictorian. There are criminals motivated by malice and a conscious disregard for the lives of others, and there are cities more interested in providing a sanctuary for those criminals than they are providing a sanctuary for their own law-abiding citizens.    I have been on this Committee, Mr. Chairman, for almost 5 years now, and I have listened closely to the debate over immigration. You do not hear many witnesses called by our colleagues on the other side to talk about law enforcement or background checks or enforcement mechanisms. You do hear certain phrases repeated with catatonic frequency as if rote repetition will somehow make it true.    You hear phrases like ``functional control over the board'' uttered by witnesses who are uniquely well-positioned to know better. You hear citizenship for 11 million undocumented aspiring Americans as if 11 million of any category could pass a background check. You hear arguments against empowering State and local law enforcement to assist Federal authorities, and those are the most illogical arguments of all.    We trust State and local law enforcement to investigate all manner of crime from murder, to sexual assault, to kidnapping, to narcotics trafficking, but God forbid they help us enforce immigration laws. State and local law enforcement are good enough to provide protection for Members of Congress in this city and when they are back home, but somehow, some way, all that changes when it comes to the issue of immigration. They are no longer smart enough to enforce Federal immigration law.    And even though some do not trust State and local law enforcement to enforce Federal law, they are more than happy to allow State and local officials to openly ignore that same Federal immigration law, which brings us to that benign-sounding phrase, ``sanctuary cities.'' The definition of ``sanctuary'' is a place of refuge or safety. It almost sounds utopian, a place of refuge, a place of safety.    Refuge for whom? Safety for whom? For a young woman walking on a pier with her father, or for a career recidivist like Juan Francisco Lopez-Sanchez, who had a quarter century's worth of lawlessness dating all the way back to 1991. He committed local, State, and Federal crimes in at least 5 separate States. He was deported 5 times, and each time had so little regard for the law that he reentered that border that we are supposed to have functional control over.    His procedural history is every bit as disturbing. In May of 2011, this defendant was convicted and sentenced to 46 months imprisonment for illegal reentry again. At the conclusion of that sentence, he was released from the Bureau of Prisons to a known sanctuary jurisdiction for the ostensible prosecution of an old drug case. And, of course, San Francisco did not prosecute that old drug case. They dismissed it, which surprises exactly no one.    And then they released this defendant. They did not return him to the Bureau of Prisons or to Federal probation. They did not honor the detainer placed on him by ICE. They released someone they knew was not legally in this country and that had a criminal history dating back to the early 1990's.    And we are given a litany of excuses for policies like this. We are told that we need policies like the one in San Francisco so people will cooperate with law enforcement. And I want you to consider how utterly illogical that is. We are releasing known criminals back into society so society will help us catch known criminals. And, of course, some of our friends on the other side say all of this is necessary so folks will, to use the President's word, ``come forward'' or ``get on the books,'' or ``get right with the law.''    I want you to ask yourself, what in this defendant's background leads you to believe that he would ever come forward or get on the books or get right with the law? He was already on the books. Better than that, he was in jail, and he was there because he had not complied with a single damn thing we had asked him to do.    So are we supposed to catch him again after San Francisco releases him? Do we wait on another victim? Is that the strategy behind sanctuary cities; release them and then wait until they victimize someone else? Is that what we mean by coming forward?    The President and others constantly talk about comprehensive immigration reform, but they are very light on the details when it comes to enforcement and background checks. They just fundamentally fail to understand that border security, both borders by the way--both of them--and internal security are fundamental conditions precedent to fixing our broken immigration system.    Mr. Steinle, about a year ago there was a precious little girl waiting on the steps of the Capitol for me after votes, and I knew what was coming, so I could not walk past her. I knew or suspected that she would repeat those phrases that so-called advocates teach children to repeat to Members of Congress. But I had to stop as any father of a daughter would, and I stopped and the little girl said, I want to pray for you, one of the stuff that the advocates tell the children to say. She just said, I want to pray for you.    So I picked her up, and in a mixture of Spanish and English she told God that she was not here legally, but she wanted to stay. And everyone that I know would want to help that little girl. But everyone also should have wanted to help your little girl, Mr. Steinle. She was not 5, but she is still your daughter, and this country should have protected her.    And I hope you are given answers. I hope the politicians in San Francisco will explain to you why they thought it was more important to provide a sanctuary to Juan Francisco Lopez-Sanchez than they did to provide a sanctuary for your daughter. And I hope this Administration will tell you why a Bureau of Prisons released a five-time illegal entrant to a known sanctuary city for a piddling damn drug charge that wound up being dismissed. And I hope San Francisco will tell you why they released a convicted felon rather than honor the detainer in place, or just simply return him to ICE. You deserve those answers, and you deserve to know that your daughter's sacrifice had meaning and purpose, and that her death will serve to save the lives of other people.    When Trayvon Martin was shot and even before our criminal justice system had acted, the President said that could have been his son. For those of us that have daughters, which includes the President, your daughter could have been our daughter.    I used to have a quote on the wall of my old office at the courthouse, and it was given to me by a victim advocate. It is from a Greek philosopher named Solon. I will paraphrase it, but this is pretty close. He was asked what city was the best one to live in, and he answered that city where those who are not injured by crime. Take up the cause of those who are as if it had been them.    That is the kind of country we should want, too, one where we do not have to lose our daughters, to feel the pain that you feel. And we should not have to lose daughters to know that no one else should have to feel like you feel this morning.    With that, I would recognize the Ranking Member.</t>
   </si>
   <si>
     <t>400245</t>
   </si>
   <si>
+    <t>Lofgren</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lofgren. First, I would like to welcome all of the witnesses to the hearing today, but I especially want to welcome members of the Steinle family and to extend my heartfelt condolences to you. As a parent, I can only imagine what you are going through, and any time an innocent person is lost to violence, I think it is important that we all stop and consider what steps could we take, what policies and processes, procedures, and rules, and laws could be altered so that we would have a safer community, so that that tragedy would not occur.    And so, it is important the process that we are going through at this time. A hearing like this offers Members and the public an opportunity to learn more about the issue, and I hope that we can work together collaboratively to address some of the problems we were sent here to Washington to solve.    Now, I am eager to hear what each witness has to say. I must note that last night Chairman Goodlatte and I testified before the Rules Committee on H.R. 3009, a bill that has already been decided is the answer apparently to this. And I would note that if 3009 had been enacted into law, it would not have had any impact on these circumstances that resulted in the death of your daughter. In addition to that, major law enforcement associations, like the Fraternal Order of Police, the Major Counties Sheriffs Association, and others are telling us that that bill would actually make us less safe, and they all oppose that bill.    I do think that the testimony of the police chief of Dayton, Ohio I hope will be instructive because I have not heard a single person who suggests that it was wise, appropriate, or even legal for the sheriff in San Francisco to have released the individual who is charged with killing your daughter. Having said that, there are police agencies around the United States who believe that it makes our communities less safe to inquire as to the immigration status in every case. For example, the domestic violence organizations have contacted us to say that if there is a call for a domestic violence situation and the individuals who are calling know that they and everyone in their household will be interrogated as to their status, a family where there is mixed status will not call for domestic violence. So we have to be mindful of those issues, the entirety of the situation that we face.    I would ask unanimous consent to put into the record a bipartisan letter that was sent to appropriators just 4 months ago signed by 162 Members of Congress talking about the importance of the Byrne JAG and COPS grants for policing in this country.</t>
   </si>
   <si>
@@ -76,6 +91,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman, and thank you for holding this hearing and for the work that you have dedicated to this issue for the last 2 years.    I want to thank all of our witnesses for being here today. I think you all have compelling testimony, but I especially want to thank Mr. Steinle, who I just had the opportunity to meet. I told him that the fact that he would come here 3 weeks after the tragic death of his daughter to me shows courage and determination to make sure that other lives are saved as a result of this. So you have my deepest sympathy, but also my deepest appreciation and admiration for coming here today. I also told Mr. Steinle that my son lives in San Francisco. I have been on that very pier with my son and my daughter, and we want to make sure that everybody is safe.    Last week, this Committee held a Department of Homeland Security oversight hearing with Secretary Johnson as the sole witness. Many Members focused their questions on sanctuary cities, Immigration and Customs Enforcement detainers, and criminal aliens. So we have heard much of what the Administration has to say about these issues. But today we will hear perspectives on sanctuary policies that are distinctly different than what Secretary Johnson had to offer, and I look forward to that testimony.    I am honored to have the family of Kate Steinle here and Mr. Steinle testifying. And, of course, their perspective on this issue is one that we wish they never had to contemplate. And the same is true for the countless other victims of criminal aliens that this Committee has heard from the past several years, people like Jamiel and Anita Shaw, whose son was murdered by a criminal alien gang member who has been released from jail by Los Angeles law enforcement pursuant to Los Angeles sanctuary policy. And people like Sabine Durden, whose son, Dominic, was killed in a car accident by an illegal immigrant who had two prior DUI convictions. Ms. Durden is here with us this morning, and I thank you very much for being here today as well.    These tragedies were preventable. This Administration must reverse its wholesale and unprecedented shutdown of immigration enforcement. Because the result of that shutdown is that millions of unlawful and criminal aliens are not considered high enough priorities for deportation, they are left in American communities. In fact, in the last year, the number of administrative arrests of criminal aliens has fallen by a third, and the Department continues to release thousands of such aliens onto our streets. ICE admitted to releasing 30,558 aliens with criminal convictions in 2014.    Last week we publicized ICE data showing the recidivist activity of those criminal aliens ICE released in 2014. Already 1,423 have been convicted of new crimes like vehicular homicide, domestic violence, sexual assault, DUI, burglary, and assault, among many others. And no doubt, even more have been arrested for, and charged with, additional crimes.    Secretary Johnson's solution, the Priorities Enforcement Program, is a failure. Even the Secretary admitted last week that five of ICE's Priority A, meaning the worst offending jurisdictions, have refused to participate in PEP. And while 33 of the 49 Priority A jurisdictions have apparently agreed to participate, it remains to be seen how fully they will participate. The Administration has admitted that when it says a jurisdiction has agreed to participate, that could encompass compliance with only a very small part of PEP.    There is a clear answer to this problem: compliance with ICE detainers must be mandatory. Jurisdictions that violate that policy must suffer consequences. And, most importantly, Congress must no longer allow the President the ability to simply turn off the immigration enforcement switch.    This Committee has passed a bill that addresses all three of those priorities, H.R. 1148, the ``Michael Davis, Jr. and Danny Oliver in Honor of State and Local Law Enforcement Act'' introduced by Chairman Gowdy. While I look forward to consideration of H.R. 1148 on the floor later today, the House will vote on legislation to address one part of the solution to sanctuary cities. That bill is a good first step, and I will support it. I also appreciate the Majority Leader's commitment to me that we will take additional action to ensure compliance with our immigration laws in the future.    Today I look forward to hearing the witnesses' thoughts on how to prevent sanctuary policies and the overwhelming number of crimes committed pursuant to these policies. And I also want to acknowledge that Mrs. Wilkerson, I think, is here this morning as well. She testified before the Senate hearing on Tuesday.    So I want to make it clear to everyone that this Committee is committed to addressing this problem in a comprehensive way, and we have taken the first step by bringing the bill to the floor today. But that should not be the end; that should be the beginning of our efforts to make sure that American citizens are safe in their cities around the country.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -91,24 +109,36 @@
     <t xml:space="preserve">    Mr. Gowdy. May the record reflect all the witnesses answered in the affirmative.    I will introduce you en banc and then recognize you individually for your opening statement.    From left to right, Mr. Jim Steinle of Pleasanton, California is the father of Kate Steinle who was murdered on July the 1, 2015 by a recidivist criminal alien who had been released from the San Francisco Sheriff's Department.    Sheriff Scott Jones started with Sacramento County Sheriff's Department in 1989 as a security officer at their brand new main jail. As a deputy he worked in corrections patrol, legal affairs. He was promoted through the ranks to sergeant, lieutenant, and finally captain. As sheriff, he instituted an annual strategic planning process that prioritizes projects and continues to drive the department forward.    He holds a bachelor's degree in criminal justice from CSU Sacramento and a juris doctor degree from Lincoln Law School.    Ms. Jessica Vaughan currently serves as the director of policy studies for the Center for Immigration Studies. She has been with the Center since 1992 where she has experience in immigration policy and operations topics such as visa programs, immigration benefits, and immigration law enforcement. And, in addition, she is an instructor for senior law enforcement, training seminars at Northwestern University Center for Public Safety in Illinois.    She has a master's degree from Georgetown and a bachelors in international studies at Washington College in Maryland.    Finally, Chief Richard Biehl joined the Dayton Police Department as Director in Chief on January 28, 2008. He has more than 35 years of experience in law enforcement. He served on the Cincinnati Police Department from 1980 to 2004 in positions including officer, sergeant, lieutenant, captain, and ultimately assistant police chief.    Welcome to all of you. Mr. Steinle, you are recognized for your opening remarks.</t>
   </si>
   <si>
+    <t>Steinle</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Steinle. Thank you. First of all, I would like to thank the Members of this Committee for the honor to speak to you about our daughter, Kate. All children are special in their own way. Kate was special in the way she connected with people. We called it the ``Kate effect.''    Kate was beautiful, she was kind, she was loving and deep in faith. Kate had a special soul, a kind heart, the most contagious laugh, and a smile that would light up a room. Kate loved to travel and spend time with her friends, and, most of all, spend time with her family. In fact, the day she was killed we were walking arm in arm on Pier 14 in San Francisco enjoying a wonderful day together. Suddenly a shot rang out, Kate fell, looked at me and said, ``Help me, Dad.'' Those were the last words I will ever hear from my daughter.    The day Kate died, she changed her Facebook cover photo to a saying that said, ``Whatever is good for your soul, do that.'' This quote truly describes her spirit. After graduating from Cal Poly San Luis Obispo, she went to work for a title company and saved her money so she could travel the world. She traveled to Spain, Thailand, Amsterdam, Dubai, South Africa, just to name a few. She even made her way to the slums of Mumbai, India to reach out to her friend's mother's nanny. She spent time there with the woman's family and came home a changed person.    Everywhere Kate went throughout the world she shined the light of a good citizen of the United States of America. Unfortunately, due to disjointed laws and basic incompetence on many levels, the U.S. has suffered a self-inflicted wound in the murder of our daughter by the hand of a person that should never have been on the streets of this country.    I say this because the alleged murder is an undocumented immigrant who has been convicted of seven felonies in the U.S. and already deported five times. Yet in March of this year, he was released from jail to stay here freely because of legal loopholes.    It is unbelievable to see so many innocent Americans have been killed by undocumented immigrant felons in recent years. In fact, we recently came across a statistic that says between 2010 and 2014, 121 criminal aliens who had an active deportation case at the time of release were subsequently charged with homicide-related offenses. Think about that: 121 times over 4 years an illegal immigrant, a violent illegal immigrant, with prior criminal convictions that later went on to be charged with murder when they should have been deported. That is one every 12 days.    Our family realizes the complexities of immigration laws. However, we feel strongly that some legislation should be discussed, enacted, or changed to take these undocumented immigrant felons off our streets for good. We would be proud to see Kate's name associated with some of this new legislation. We feel that if Kate's law saves one daughter, one son, a father or mother, Kate's death will not be in vain.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Steinle.    Sheriff Jones?</t>
   </si>
   <si>
+    <t>Jones</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Sheriff Jones. Chairman Gowdy and Members, thank for you the invitation to speak with you this morning. I am Scott Jones and I am the Sheriff of Sacramento County, one of the largest sheriffs departments in the country. And in Sacramento County, like the rest of California and many communities, we have a very diverse population, including a large population of undocumented immigrants. They are a vital, important, and valued part of our community.    Unfortunately, there is also a percentage of that community that chooses to victimize others as a way of life in sometimes heinous ways. Unfortunately, unlike their American counterparts, I cannot protect my community from these offenders.    Secure Communities went a good way in the right direction by allowing fingerprints to be processed by ICE. Now, keep in mind we do not have access to their database, so we do not know status. But they did a good job of notifying their local ICE offices of the folks that they wanted to take custody of. Because they cannot be in every jail 24 hours a day, they served the jails with a detainer that says hold this person for a brief time until we get down to the jail and take custody of this person that we have already identified should not be released. It worked well, and few people fell through the cracks.    Even under the new watered down version of Secure Communities, the Priority Enforcement Program, it is dependent on detainers to be functional. I can tell you that the detainer system has failed, and consequently and necessarily then the Priority Enforcement Program is also failing.    Even notwithstanding the fact that the Federal Government allows and encourages States to pass their own immigration laws, though they have no legal authority to do so--it is a plenary and exclusive function of the Federal Government--they are allowed to so without consequence or challenge because it is much easier for that to happen. So we consequently have 50 different immigration policies that are constantly evolving.    The recent TRUST Act in California severely limited the types of crimes for which we can honor detainers. But then came a lowly magistrate judge in Clackamas County, Oregon who held that in Clackamas County only that detainers were unlawful. I and other sheriffs came back and talked with ICE administrators and begged, pleaded with them to stand with us so we could stand with our ICE partners to keep our communities safe and honor detainers at least for the ones that our State laws allowed because they already said they would not contravene that. They said, no, that it would not happen during this Administration.    And in a leadership vacuum, someone will fill that space, and that someone was the ACLU who seized on the opportunity to send a letter to every sheriff in this country telling them that if they honored any ICE detainers, not just the ones that were allowed by State law, but any ICE detainers, they would be sued. Again, we pleaded with ICE to no avail. So now, over 200 jurisdictions in this country do not honor ICE detainers. People are simply released without any scrutiny from ICE at all.    California has become a de facto sanctuary State, and in short order this entire country will be a de facto sanctuary country. But that is not the same as sanctuary cities that pass laws that overtly and conspicuously violate Federal law. They, too, are allowed to do so. I have it on good authority that the San Francisco Sheriff's Office has not contacted ICE for any reason in over 3 years despite being served with many detainers during that time period. It is deplorable and reprehensible. And you will find no shortage of police chiefs willing to come here and testify that this type of legislation named after in part Danny Oliver, the deputy of mine that got killed last October 24th by someone removed 4 times, that it is going to be bad for our communities, that it is going to erode trust in our immigrant communities, that we should not be enforcing immigration law. It should be a function of the Federal Government. And I cannot argue with any of that. I agree with every little sentiment that is expressed.    I do not care. I do not have any desire to enforce immigration law, but that presupposes that there are people that are concerned with enforcing immigration law, and that is not happening. And notice I mentioned police chiefs willing to come here and testify. I defy you to find a sheriff that will come here and testify that some of this legislation is not a good idea, because while we are both singularly concerned with building trust in our communities, only the sheriffs, because of their roles in corrections in this country, are concerned with the dire consequence of releasing someone they know who should not be released, that they know ICE already wants and that society should be protected from, and not to be able to hold them for even 1 minute while ICE can come down to the jail and take custody of them.    Sheriffs are accountable to the people. They are elected. We have our own political voice. There is a reason, a very conspicuous reason. Even though our large role in corrections in this country that there is no sheriff representation on the President's 21st Century Task Force on Policing. And that is it.    Even without national immigration reform, there can be solutions. There can be legislative or stroke of pen changes by policy that will make this part better, to make detainers lawful and mandatory on local detention facilities so we can cooperate with our ICE partners despite what the policymakers in Washington have.    I hope you have had an opportunity to review the information that I have presented prior to this hearing. It lists some of those suggestions. I remain deeply committed to assisting in whatever way I can in this issue, and I look forward to exploring any of those issues further through any of your questions you may have. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Sheriff.    Ms. Vaughan?</t>
   </si>
   <si>
+    <t>Vaughan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Vaughan. Thank you very much for the opportunity to testify on the public safety problems created when local governments adopt policies that obstruct immigration enforcement, commonly known as sanctuary policies.    According to an ICE report that I obtained through a FOIA request, as of October 2014, there were 276 such jurisdictions in the United States. Over an 8-month period in 2014, more than 8,100 criminal aliens who were the subject of detainers were instead released back into the streets as a result of these non-cooperation policies. Approximately two-thirds of these individuals already had a serious criminal history as defined by ICE as the time of their release. Nearly 1,900 of them subsequently reoffended just in that 8-month period. Only 28 percent of them have been re-apprehended by ICE.    Now, I have just reeled a lot of statistics that I know sometimes make some people's eyes glaze over, but as someone who also has lost a close family member--my brother--because of a negligent act by a sworn law enforcement officer and also a bad policy--and I should add that the offense that was committed was one that some on this Committee would call a minor traffic offense that killed my brother--I have to say that it is really not okay to refer to these tragedies as a little thing, as one Member of this Committee has.    I have a friend. Her name is Heather. A few years ago she was carjacked at knife point and taken to Roger Williams Park in Providence, Rhode Island and raped repeatedly by an illegal alien who had been in the custody of the Providence Police Department more than once, but was released because of then Mayor Cicilline's sanctuary policies. This was not a little thing.    I have other friends, some in this room, who can tell similar stories, and I am afraid that Congress is about to try to get away with doing just a little thing just by barring funding from these sanctuary jurisdictions, some funding. And I am asking you today to not be satisfied with just doing a little thing. This big problem requires you to have the courage to do a bigger thing. You have the language in the Davis-Oliver Act. Please do this for these families who have lost so much.    Sanctuary policies do nothing to build trust between immigrant communities and local law enforcement. They do not improve access to law enforcement services for immigrants, nor have they been shown to increase the likelihood that more immigrant crime victims will report crimes. On the contrary, they destroy the trust of the community at large that the laws will be faithfully enforced to preserve the quality of life for all.    Despite the widespread public outrage at the San Francisco sheriff's policies that caused the release of a man who went on to kill Kathryn Steinle, it is clear that some jurisdictions will not budge from their criminal alien sanctuary policies. To make matters worse, the Obama administration's new Priority Enforcement Program explicitly allows local jurisdictions to obstruct ICE, and also establishes the entire country as a sanctuary for nearly all illegal aliens by further narrowing enforcement priorities and severely restricting the ability of ICE officers to deport removable aliens, including many with criminal records.    Therefore, Congress must step in to correct the situation by clarifying in the law that local law enforcement agencies are expected to comply with ICE detainers; establishing that local law enforcement agencies will have qualified immunity when cooperating in good faith; by implementing sanctions for those sanctuary jurisdictions that continue to refuse to cooperate; and by reversing the Obama administration's non-enforcement policies.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Ms. Vaughan.    Chief Biehl?</t>
   </si>
   <si>
+    <t>Biehl</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chief Biehl. Chairman Gowdy, Ranking Member Lofgren, and Members of the Committee, thank you for the opportunity to appear before you today to provide testimony on this important issue.    I am Richard Biehl, the director and chief of police of Dayton, Ohio Police Department. I have had the honor of serving in this position since January 28th of 2008. Further, I have spent the last 35 years working to improve public safety in urban areas. Through that experience, I know that effective public safety, even when grounded in evidence-based best practices, is crucially dependent upon community engagement and support.    First, I would like to express my condolences to the Steinle family for their loss and to Sheriff Jones for the loss of his officer last year. Sadly, I attended the funeral of Cincinnati Police Officer Sonny Kim less than a month ago killed in the line of duty. He was my 9th in my career.    I happened to read a Proverb a couple of days ago, and I think it is quite appropriate to the conversation today. ``Our passions are the winds that propel our vessel. Our reason is the pilot that steers her. Without winds, the vessel would not move; without a pilot she would be lost.''    I know we are here to discuss the topic of sanctuary cities and the role in public safety. As we have the conversation about sanctuary cities, the specifics of how we define them are important, and as we think about how to best protect the residents and keep our communities safe, it is crucial that we do not undermine proven community policing practices.    First, I would like to explain Dayton's policy regarding cooperation with Federal immigration enforcement efforts. Our policy states that the Dayton Police Department shall not stop, investigate, or arrest a person solely because of their real or perceived immigration status. Investigation of a person's immigration status must be done only for the most serious offenders. This approach has served the Dayton community well. During the time these policies have been in place, Dayton has experienced significant reductions in crime. This is an important point I want to convey to you all.    As chief of police, my primary concern is with the safety all residents, and in Dayton we have seen a reduction in crime in our city. Our immigration law enforcement approach allows us to focus on true threats to public safety while ensuring that our immigrant communities maintain necessary trust to report criminal incidents to our Department.    I am concerned that proposed legislation, such as H.R. 3009, would coerce local law enforcement departments to make decisions that undermine our ability to keep our community safe. The Dayton Police Department, like many agencies throughout the State of Ohio, is facing critical staffing shortages that are already creating potential challenges for fulfilling its public safety responsibilities. Making local police departments fulfill immigrant enforcement responsibilities will only make it even more challenging.    I have seen the positive effects of community policing in my city. Dayton as a population is only 4 percent foreign born. Given its demographics, it may appear an unlikely place for a national immigration policy to be of much concern, much less an issue impacting local policing. But in my time as police chief, I have repeatedly witnessed how significant the issue is to our community.    Within a month of beginning my service as Dayton Police Chief, I was approached by multiple community advocates who expressed concerns that the Latino community members were being racially profiled. Allegations like this are deeply troubling to me. Our cities are safer when there is a sense of trust with our communities, including our immigrant communities. If families view law enforcement as a threat, or are fearful of dropping off their kids off at school, or walking around their neighborhood, no one benefits.    As I stated earlier, Dayton has seen a reduction in crime, not an increase, as a result of our community policing policies, such as investigating persons of immigration status only for the most serious offenses. I might add that we have bene recognized Statewide, nationally, and internationally for excellence in problem-only policing and community-oriented policing.    While immigration enforcement is a Federal responsibility, collaboration between State and local law enforcement and Federal immigration enforcement official can and should exist; but policies need to be clearly tailored to ensure community policing is not undermined. I agree we should deport serious violent offenders. No one wants violent crime in their community, because once we get beyond violent offenders that some localities and municipalities disagree over collaboration with Federal immigration enforcement officials.    I support the new Priority Enforcement Program initiative as the U.S. Department of Homeland Security has described it. PEP allows local jurisdictions to work with ICE to implement priorities concerning crimes that most negatively impact public safety in their communities.    I believe local law enforcement should comply with notifications as well as detainers as long as the detainers do not require jurisdictions to exceed their legal authority to hold persons beyond their current sentence and local charges. Requiring local law enforcement to hold persons for additional time must be supported by a legal basis; otherwise, it would ask local law enforcement to violate the U.S. Constitution, something none of us wants.    Before Congress tries to impose a legislative solution, I believe it should first allow PEP to be implemented. What everybody wants is a safe community. That is what I want, and that is what community members care about. We should not punish localities who are trying to promote trust in their communities. Collaboration with Federal immigration officials should exist for those serious and violent of criminals. That collaboration needs to be carefully tailored to address the priorities of local communities while ensuring community policing is not undermined, such as through the PEP Program.    A long-term solution requires Congress to come up with a fix for a broken immigration system and clarify immigration enforcement responsibilities. Until that time, local community leaders will continue to implement practical solutions to promote public safety in our communities.    Thank you again for the opportunity to testify today. I am happy to answer any questions that you may have.</t>
   </si>
   <si>
@@ -118,6 +148,12 @@
     <t>412419</t>
   </si>
   <si>
+    <t>Labrador</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you all for being here. Sheriff Jones, in your written testimony you provide some suggestions for fixing our immediate problems between ICE and local law enforcement, including making detainers mandatory in local jails and having ICE share resources with localities to ensure effective enforcement. In your view, given the current politicized status of ICE's policies, what can be done to compel ICE to provide these resources to States and localities?</t>
   </si>
   <si>
@@ -334,6 +370,9 @@
     <t xml:space="preserve">    Mr. Goodlatte. Thank you very much. The Chair recognizes the gentleman from Illinois for his questions.</t>
   </si>
   <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gutierrez. Thank you, Mr. Chairman. I want to start off by expressing my deepest sympathies to the family of Kathryn Steinle. Her death is a senseless tragedy. I have two daughters of my own, and as a father I cannot even begin to imagine the pain that her parents are going through. I am truly very sorry for your loss.    I am often criticized by my supporters because I do not have a soft spot for immigrant criminals no matter how small or how old their violations. Many argue that old convictions on drunk driving should be forgiven when determining whether someone should get deported or not. After all, they have already served their time and paid the consequences doled out by the criminal justice system.    I am not one of those people who argue for leniency for criminal immigrants. If you have serious criminal activity on your record, you have given up your USA privileges, and, generally speaking, I will not spend time or energy fighting for you. There are too many immigrants in this country who have never done anything wrong or never committed crimes, and I fight for them because they are part of what enriches America and what benefits all Americans.    The tragedy in San Francisco has generated an important dialogue regarding our communities, the police officers we have entrusted to protect us, and our broken immigration system. The fact is, he should have never been released to be on our streets again. Deported five times. It seems to me they caught him and deported him, and he should have been deported once again.    But there are serious questions about just how it is the local police should go about it. Nearly 300 jurisdictions have decided that they will not comply with a detainer from Homeland Security. The fact is the courts have said that they do not have to comply with those detainers, so what we need to figure out a way is to fix the broken immigration system that we have.    We spend a lot of time talking about Mr. Lopez. We do not spend a lot of time talking about people who enter this country through other borders--JFK, LAX--and commit crimes in this country from all over the world. So if we are truly going to protect our Nation, then we need to have a holistic approach to our broken immigration system.    It breaks my heart, Mr. Steinle, because I could have been walking on that pier, as I have, with both of my daughters, and I want to make sure that it does not happen. And I will continue to work with my colleagues on the other side of the aisle to fix our system, not in pieces and bits, but in its totality so that we can protect everybody in America, because indeed there are many people who want to fix our broken immigration system, and we need to do it in a holistic way.    Had we done it, we would have secure communities. We would have more. We would have verification of employment. We would have so many other means. We would have the ability to flush out the bad people. Why? Because we would let the good people come forward so that they cannot hide among the good people, the good people who live in my congressional district.    Now, I would like to take a moment, Mr. Chairman, to go back just for one moment. I know it might seem a little just, I do not know, unnecessary, but I would like to go back to a transcript at the end of the DHS hearing which you presided over, Mr. Gowdy, on July 14, 2015. I said, and this is the record, a transcript of the record of the July 14 hearing, which I stayed for the whole hearing, all 3 hours.</t>
   </si>
   <si>
@@ -349,6 +388,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. Mr. Steinle, thank you for your heartfelt testimony. It is sad that we need to be here today. The tragic murder of a beautiful young woman, your daughter, I think could have been prevented.    There are also thousands of other victims that did not need to be victims and would not have been victims if this Administration had enforced immigration laws. In my view, someone in this Administration probably should be arrested for negligent homicide or for any of another dozen crimes that are so frequently committed by illegal immigrants in this country who should not even be here.    In the case of the sanctuary cities, in just 8 months last year, they released almost 9,000 individuals who had been either arrested or convicted of serious crimes. Two-thirds of those 9,000 individuals had either committed or been arrested of serious crimes. In just the few months since they were released, one-quarter have committed other crimes. How many others are going to commit more crimes in the coming months, if one-quarter have already been arrested for other crimes.    This Administration last year released 30,000 criminal aliens; 2,000 under the Constitution they had to release, but 28,000 were released voluntarily by this Administration. They committed the worst crimes imaginable, thousands of crimes. So, if anything, you have got an Administration setting an example for sanctuary cities rather than trying to prevent sanctuary cities from trying to escape enforcing immigration laws. Sanctuary cities have increased exponentially under this Administration for one good reason, that is the Administration has done nothing to encourage municipalities and other jurisdictions from becoming sanctuary areas.    Many people claim that by being a sanctuary city or area or jurisdiction that that is somehow going to encourage illegal immigrants to report crimes. In my view, that is a specious argument, apocryphal. It is simply anecdotal, and I have never seen one shred of evidence that that is the case. It is just a simple assertion. And, in fact, every study I have seen, three out of three, have actually demonstrated just the opposite.    One major study found no decline in crime reporting by Hispanics after the implementation of a local police program to screen offenders for immigration status and to refer illegal immigrants to ICE for removal. Another academic survey found that by far the most commonly mentioned reason or not reporting a crime was a language barrier followed by cultural differences, not fear of being turned over to immigration authorities. And a third study found that significantly more removals of criminal aliens did not affect patterns of crime reporting in immigrant communities. It would be nice if the media would just once cite any of these studies. We only hear the other side.    My question to Ms. Vaughan, who has done some research on this subject, what do you think about the arguments made that somehow we are going to reduce crimes if we allow illegal immigrants to seek sanctuary and stay in this country in violation of current immigration laws? It seems to me it is very clear that more crimes are committed as a result of this policy, not fewer, but I would be interested in your opinion.</t>
   </si>
   <si>
@@ -364,6 +409,12 @@
     <t>400199</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. I thank the Chairman and the Ranking Member. Mr. Steinle, I add, again, as I know all Members have done, sympathy to you and your family. The sound of the violent act against your daughter simply penetrated around this Nation and beyond. I would also indicate, Chief Jones, that any time we lose someone in the line of duty, we, too, feel that pain. And frankly, we should try to find the solutions that we need to find.    So let me just offer a few thoughts in the instance of the facts in San Francisco, but I think it is important to join in my colleague from Texas and say that the laws that are on the books that are legal should be enforced as they relate to immigration issues in this country.    Those of us who support comprehensive immigration reform in no way view that reform as coddling criminals. They stand aside from the population of families, of students, of workers, who have come in this country to do good and not to do harm. And I think that when we get into a process of viewing one group of wanting not to abide by the immigration laws and another group as, then it is a misrepresentation of many of the American people who support our perspective.    And I might just add one thought. When you have deferred adjudication, that is actually a legal use that can be utilized under the term ``prosecutorial discretion,'' which ICE has and a number of other agencies have. It is not in this instance that I think that prosecutorial discretion played out in any way. It did when we speak of these young DREAMers that have been allowed to stay and go to school.    But what I do want to make note of is that I wish the clock could have been turned back on this terrible tragedy, and just make mention that the individual in question in your daughter's tragic circumstances was in the Federal Bureau of Prisons. They did hold this individual, and in March 2015 transferred him to the custody of the San Francisco's sheriff's office on a 20-year-old warrant for a marijuana charge with the expectation that the district attorney would pursue. We wish this had not happened, but what did not happen, which was a simple act, was a phone regarding Mr. Lopez-Sanchez's statement or status.    This bill dealing with the sanctuary cities and removing all opportunity for such cities, and frankly why do we not all agree that that name connotes a problem for many, because it suggests that you are giving sanctuary to everybody, has a right to stay under that umbrella, crooks, and criminals, and bad actors. And I want you to know that is absolutely not the case. It was utilized in a time when people came and did not speak English, and they were afraid of harm. And the only way that law enforcement officers could do their effective job was to be able to find out who did it.    So I want to ask--yes. I am not seeing the name, and I am looking for my list. I always like to call the name, but I will call it in a moment. But, yes, did I characterize if we use a different term other than ``sanctuary.'' We are not giving sanctuary to crooks and criminals, are we?</t>
   </si>
   <si>
@@ -400,6 +451,12 @@
     <t>400220</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman. I thank the witnesses for your testimony today, and I continue to be amazed at the composure that you are able to bring to this issue, Mr. Steinle.    I wanted to inform you that some of us have been doing some things to try to move this Congress and this country in the right direction. I look back on testimony at this same table about the first year I came here in Congress, which would be around 2003 or 2004. The witnesses were testifying then of the number of people who died trying to get across the Arizona desert.    I asked a witness who was seated in your seat, Chief Biehl-- actually I asked each of the witnesses--he had an answer. I said, do you know how many Americans died at the hands of those who did make it into the United States. And his answer to me on September 11th was fresher in our minds than it is today. He said, I do not know the number, but I can tell you it would be in multiples of the victims of September 11.    And at that point, I began the effort to get a GAO study, which Ms. Lofgren cooperated with me on. In April of 2005 we got a study out. It was not quite apples to apples because we do not keep records well enough to have it exactly apples to apples. We refreshed that study again in March of 2011. I continued to bring amendments that cut off funding to sanctuary cities.    I never believed that there should be a separation between the levels of law enforcement in this country. I grew up in a law enforcement family, and I understand the interrelationships that are part of the testimony we have heard here today.    I wrote an op-ed last year dated August 26. It is in the National Review: ``The ACLU Reverses the Rule of Law.'' In it I objected to the ICE detainer decision. What has been missing here is that then acting director of ICE, Dan Ragsdale, issued a statement, a letter to the political jurisdictions on February 25, 2014, that said that ICE detainers are not mandatory as a matter of law. And so, this is initiated not by ICE reacting to the ACLU's threat of lawsuits. That letter from ICE, contributed to this tragedy that we have here before us. And they changed the word ``shall'' to now it is a suggestion.    The last sentence in that op-ed says, as I wrote, ``If we bow to the outrageous demand of the ACLU and ignore detainer orders, the price will be paid by thousands of crime victims who would otherwise have been protected by law.'' I think we have clearly heard today the effect of that, and we have heard it from expert testimony and very painful experiences.    Mr. Steinle, on the day that I saw the news of your daughter's death, long before I knew it would be a national story, I sent out a tweet, and it is dated July 3. And it says this, ``100 percent preventable crime. Just enforce the law. This will make you cry, too.'' And it happens every day. That was the Breitbart article from that day, and I sent out a subsequent tweet the following day, and it says this: ``This story happens every day in the U.S.''    And as of 2011, 25,064 criminal aliens were arrested for homicide in the United States. That is as of the end of 2010. How many since then? How big is that number? I look at the report and I do the math. That number comes to perhaps 48,000. I look at the crimes that have been committed by criminal aliens. This report, coupled with a subsequent report, brings us to a number in the area of 7,200,000 crimes for perhaps less than around half of that many as crime victims.    The devastation in this country because we refuse to enforce the law is breathtaking when you look at the statistics, and it is a tragedy that causes my heart to cry when I see what happened. And we knew it. This Congress knew it. I saw it 12 or 13 years ago. Many of us have seen it, but because of political desires people that gain a political advantage from having the political support, they are pandering to and catering to people that they know are lawbreakers. And this tragedy was 100 percent preventable.    I feel like I ought to ask a question, so I want to say, Sheriff Jones, I think your testimony has been very specific and well informed. And I would ask if you could comment on what I said about ICE detainer orders.</t>
   </si>
   <si>
@@ -415,6 +472,12 @@
     <t>412619</t>
   </si>
   <si>
+    <t>Buck</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Buck. Thank you, Mr. Chairman. Sheriff Jones, have long have you been with the sheriff's office? I heard earlier, but I forgot.</t>
   </si>
   <si>
@@ -532,6 +595,12 @@
     <t>412653</t>
   </si>
   <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman. Mr. Steinle, as the father of two daughters, I cannot begin to comprehend the grief that you have endured over the last 3 weeks. And I would like to join all of my colleagues, many of them, in expressing my deepest condolences to you and to your entire family.    Can I ask you whether in the last 3 weeks President Obama has expressed his condolences to you?</t>
   </si>
   <si>
@@ -566,6 +635,12 @@
   </si>
   <si>
     <t>412636</t>
+  </si>
+  <si>
+    <t>Trott</t>
+  </si>
+  <si>
+    <t>Dave</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Trott. I thank the Chair for organizing this hearing today, and all the witnesses for sharing their insight. I also want to thank my good friend from Texas for his question. Mr. Steinle, I was going to ask you if the President had reached out to you, but I decided not to do that because I assumed that, of course, he had done that. So I am sorry that has not happened.    I thank you for your courage in being here today, and I, too, hope this is just a beginning. And my question is to Ms. Vaughan. One of my concerns is I am going to support H.R. 3009. I am going to vote for it this afternoon. But it really has to be just the beginning because it targets about $800 million of money for law enforcement.    And my concern, and I would like you to speak to it, is it has to be just a first step because many times law enforcement, sheriffs, and police chiefs are following the directive of a city council, or a mayor, or a county commission. And I think we have to go further upstream and withhold TIGER grant money for road funding for sanctuary cities that decide to ignore Federal law. I think we have to make the repercussions of a sanctuary city deciding to ignore Federal law much more severe than H.R. 3009. Can you give you any suggestions or thoughts in that regard?</t>
@@ -1043,7 +1118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,7 +1126,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1073,5189 +1148,6072 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
       <c r="H32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
       <c r="H34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G36" t="s">
+        <v>44</v>
+      </c>
       <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
       <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
+        <v>44</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G42" t="s">
+        <v>44</v>
+      </c>
       <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G44" t="s">
+        <v>44</v>
+      </c>
       <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G46" t="s">
+        <v>44</v>
+      </c>
       <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G48" t="s">
+        <v>44</v>
+      </c>
       <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G50" t="s">
+        <v>44</v>
+      </c>
       <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G52" t="s">
+        <v>44</v>
+      </c>
       <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G54" t="s">
+        <v>44</v>
+      </c>
       <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G56" t="s">
+        <v>44</v>
+      </c>
       <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G58" t="s">
+        <v>44</v>
+      </c>
       <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G60" t="s">
+        <v>44</v>
+      </c>
       <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
       <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
       <c r="H64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
       <c r="H66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
       <c r="H68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
       <c r="H69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
       <c r="H71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
       <c r="H73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
       <c r="H75" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s">
+        <v>25</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s">
+        <v>118</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s">
+        <v>118</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>110</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G101" t="s">
+        <v>124</v>
+      </c>
       <c r="H101" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>110</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G103" t="s">
+        <v>124</v>
+      </c>
       <c r="H103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>115</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G105" t="s">
+        <v>131</v>
+      </c>
       <c r="H105" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s">
+        <v>40</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>115</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G107" t="s">
+        <v>131</v>
+      </c>
       <c r="H107" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>115</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G109" t="s">
+        <v>131</v>
+      </c>
       <c r="H109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s">
+        <v>40</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s">
+        <v>40</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>115</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G114" t="s">
+        <v>131</v>
+      </c>
       <c r="H114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>127</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G117" t="s">
+        <v>145</v>
+      </c>
       <c r="H117" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>127</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G119" t="s">
+        <v>145</v>
+      </c>
       <c r="H119" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>132</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G121" t="s">
+        <v>152</v>
+      </c>
       <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s">
+        <v>34</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>132</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G123" t="s">
+        <v>152</v>
+      </c>
       <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s">
+        <v>34</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>132</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G125" t="s">
+        <v>152</v>
+      </c>
       <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s">
+        <v>34</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>132</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G127" t="s">
+        <v>152</v>
+      </c>
       <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s">
+        <v>34</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>132</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G129" t="s">
+        <v>152</v>
+      </c>
       <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s">
+        <v>34</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>132</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G131" t="s">
+        <v>152</v>
+      </c>
       <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G132" t="s">
+        <v>34</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>132</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G133" t="s">
+        <v>152</v>
+      </c>
       <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s">
+        <v>34</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>132</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G135" t="s">
+        <v>152</v>
+      </c>
       <c r="H135" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>19</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G136" t="s">
+        <v>34</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>132</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G137" t="s">
+        <v>152</v>
+      </c>
       <c r="H137" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>19</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s">
+        <v>34</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>132</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G139" t="s">
+        <v>152</v>
+      </c>
       <c r="H139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>19</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s">
+        <v>34</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>132</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G141" t="s">
+        <v>152</v>
+      </c>
       <c r="H141" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I141" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s">
+        <v>34</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>132</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G143" t="s">
+        <v>152</v>
+      </c>
       <c r="H143" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I143" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>132</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G145" t="s">
+        <v>152</v>
+      </c>
       <c r="H145" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I145" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G146" t="s">
+        <v>34</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>132</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G147" t="s">
+        <v>152</v>
+      </c>
       <c r="H147" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I147" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G148" t="s">
+        <v>40</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>132</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G149" t="s">
+        <v>152</v>
+      </c>
       <c r="H149" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G150" t="s">
+        <v>40</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>132</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G151" t="s">
+        <v>152</v>
+      </c>
       <c r="H151" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I151" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G152" t="s">
+        <v>40</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>132</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G153" t="s">
+        <v>152</v>
+      </c>
       <c r="H153" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I153" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>19</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G154" t="s">
+        <v>40</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>132</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G155" t="s">
+        <v>152</v>
+      </c>
       <c r="H155" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I155" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G156" t="s">
+        <v>40</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>132</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G157" t="s">
+        <v>152</v>
+      </c>
       <c r="H157" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I157" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G158" t="s">
+        <v>40</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>132</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G159" t="s">
+        <v>152</v>
+      </c>
       <c r="H159" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I159" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
       <c r="H160" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>171</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G161" t="s">
+        <v>193</v>
+      </c>
       <c r="H161" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I161" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G162" t="s">
+        <v>31</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>171</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G163" t="s">
+        <v>193</v>
+      </c>
       <c r="H163" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I163" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G164" t="s">
+        <v>31</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>171</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G165" t="s">
+        <v>193</v>
+      </c>
       <c r="H165" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I165" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G166" t="s">
+        <v>37</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>171</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G167" t="s">
+        <v>193</v>
+      </c>
       <c r="H167" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I167" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
       <c r="H168" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G169" t="s">
+        <v>34</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>171</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G170" t="s">
+        <v>193</v>
+      </c>
       <c r="H170" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I170" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>183</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G172" t="s">
+        <v>207</v>
+      </c>
       <c r="H172" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I172" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G173" t="s">
+        <v>37</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>183</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G174" t="s">
+        <v>207</v>
+      </c>
       <c r="H174" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I174" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G175" t="s">
+        <v>40</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>183</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G176" t="s">
+        <v>207</v>
+      </c>
       <c r="H176" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I176" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G177" t="s">
+        <v>40</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>183</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G178" t="s">
+        <v>207</v>
+      </c>
       <c r="H178" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I178" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G179" t="s">
+        <v>40</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>183</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G180" t="s">
+        <v>207</v>
+      </c>
       <c r="H180" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I180" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G181" t="s">
+        <v>34</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>183</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G182" t="s">
+        <v>207</v>
+      </c>
       <c r="H182" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I182" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
       <c r="H183" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>19</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G184" t="s">
+        <v>31</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
       <c r="H185" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>19</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G186" t="s">
+        <v>34</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
       <c r="H187" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>19</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s">
+        <v>34</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
       <c r="H189" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I189" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>19</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G190" t="s">
+        <v>34</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
       <c r="H191" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>19</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G192" t="s">
+        <v>34</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
       <c r="H193" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G194" t="s">
+        <v>40</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
       <c r="H195" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I195" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>19</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G196" t="s">
+        <v>40</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
       <c r="H197" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>19</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G198" t="s">
+        <v>40</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
       <c r="H199" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>19</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G200" t="s">
+        <v>40</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
       <c r="H201" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>19</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G202" t="s">
+        <v>34</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
       <c r="H203" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>19</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G204" t="s">
+        <v>37</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>13</v>
+      </c>
       <c r="H205" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>19</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G206" t="s">
+        <v>37</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
       <c r="H207" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>11</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G208" t="s">
+        <v>13</v>
+      </c>
       <c r="H208" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I208" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>19</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G209" t="s">
+        <v>40</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G210" t="s">
+        <v>13</v>
+      </c>
       <c r="H210" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I210" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>19</v>
-      </c>
-      <c r="G211" t="s"/>
-      <c r="H211" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G211" t="s">
+        <v>40</v>
+      </c>
+      <c r="H211" t="s"/>
+      <c r="I211" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
       <c r="H212" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>13</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G213" t="s">
+        <v>17</v>
+      </c>
       <c r="H213" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I213" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>13</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G214" t="s">
+        <v>17</v>
+      </c>
       <c r="H214" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I214" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G215" t="s">
+        <v>13</v>
+      </c>
       <c r="H215" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>19</v>
-      </c>
-      <c r="G216" t="s"/>
-      <c r="H216" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G216" t="s">
+        <v>31</v>
+      </c>
+      <c r="H216" t="s"/>
+      <c r="I216" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>13</v>
+      </c>
       <c r="H217" t="s">
-        <v>226</v>
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95632.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95632.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412473</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Gowdy</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400245</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Lofgren</t>
   </si>
   <si>
@@ -148,6 +157,9 @@
     <t>412419</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Labrador</t>
   </si>
   <si>
@@ -386,6 +398,9 @@
   </si>
   <si>
     <t>400381</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Smith</t>
@@ -1118,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I217"/>
+  <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,7 +1141,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,6069 +1166,6520 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>40</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>40</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>40</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>43</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s">
-        <v>40</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>40</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>40</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>43</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>25</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>31</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>25</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>34</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>37</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>34</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>37</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>118</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>122</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
-      </c>
-      <c r="G99" t="s">
-        <v>118</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>122</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G101" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>37</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>40</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G103" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I103" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G105" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I105" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s">
-        <v>40</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>43</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G107" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I107" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>43</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G109" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I109" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>40</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>43</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>40</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>43</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G114" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H114" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I114" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G117" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>34</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>37</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G119" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I119" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G121" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H121" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I121" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>34</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>37</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G123" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I123" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>34</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>37</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G125" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H125" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I125" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>34</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>37</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G127" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I127" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>34</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>37</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G129" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>34</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>37</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G131" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H131" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I131" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s">
-        <v>34</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>37</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G133" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H133" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I133" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>34</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>37</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G135" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H135" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I135" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s">
-        <v>34</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G137" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H137" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I137" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J137" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" t="s">
-        <v>34</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>37</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G139" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H139" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I139" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" t="s">
-        <v>34</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>37</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G141" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H141" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I141" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>24</v>
-      </c>
-      <c r="G142" t="s">
-        <v>34</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>37</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G143" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H143" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I143" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>24</v>
-      </c>
-      <c r="G144" t="s">
-        <v>34</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>37</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G145" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H145" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I145" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>24</v>
-      </c>
-      <c r="G146" t="s">
-        <v>34</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>37</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G147" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H147" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I147" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>24</v>
-      </c>
-      <c r="G148" t="s">
-        <v>40</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>43</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G149" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H149" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I149" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>24</v>
-      </c>
-      <c r="G150" t="s">
-        <v>40</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>43</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G151" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H151" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I151" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>24</v>
-      </c>
-      <c r="G152" t="s">
-        <v>40</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>43</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G153" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H153" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I153" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>24</v>
-      </c>
-      <c r="G154" t="s">
-        <v>40</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>43</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G155" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H155" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I155" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>24</v>
-      </c>
-      <c r="G156" t="s">
-        <v>40</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>43</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G157" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H157" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I157" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>24</v>
-      </c>
-      <c r="G158" t="s">
-        <v>40</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>43</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G159" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H159" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I159" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J159" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G161" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="H161" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I161" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J161" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>24</v>
-      </c>
-      <c r="G162" t="s">
-        <v>31</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>34</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G163" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="H163" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I163" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J163" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>24</v>
-      </c>
-      <c r="G164" t="s">
-        <v>31</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>34</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G165" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="H165" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I165" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="J165" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>24</v>
-      </c>
-      <c r="G166" t="s">
-        <v>37</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>40</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G167" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="H167" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I167" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J167" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I168" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>24</v>
-      </c>
-      <c r="G169" t="s">
-        <v>34</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>37</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G170" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="H170" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I170" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="J170" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G172" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="H172" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I172" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="J172" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>24</v>
-      </c>
-      <c r="G173" t="s">
-        <v>37</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>40</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G174" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="H174" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I174" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="J174" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>24</v>
-      </c>
-      <c r="G175" t="s">
-        <v>40</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>43</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G176" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="H176" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I176" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="J176" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>24</v>
-      </c>
-      <c r="G177" t="s">
-        <v>40</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>43</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G178" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="H178" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I178" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="J178" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>24</v>
-      </c>
-      <c r="G179" t="s">
-        <v>40</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>43</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G180" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="H180" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I180" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="J180" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>24</v>
-      </c>
-      <c r="G181" t="s">
-        <v>34</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>37</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G182" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="H182" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I182" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>213</v>
+      </c>
+      <c r="J182" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I183" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J183" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>24</v>
-      </c>
-      <c r="G184" t="s">
-        <v>31</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>34</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I185" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J185" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>24</v>
-      </c>
-      <c r="G186" t="s">
-        <v>34</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>37</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I187" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J187" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>24</v>
-      </c>
-      <c r="G188" t="s">
-        <v>34</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>37</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I189" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J189" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>24</v>
-      </c>
-      <c r="G190" t="s">
-        <v>34</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>37</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I191" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J191" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>24</v>
-      </c>
-      <c r="G192" t="s">
-        <v>34</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>37</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I193" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J193" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>24</v>
-      </c>
-      <c r="G194" t="s">
-        <v>40</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>43</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I195" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J195" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>24</v>
-      </c>
-      <c r="G196" t="s">
-        <v>40</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>43</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I197" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J197" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>24</v>
-      </c>
-      <c r="G198" t="s">
-        <v>40</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>43</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I199" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J199" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>24</v>
-      </c>
-      <c r="G200" t="s">
-        <v>40</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>43</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I201" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J201" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>24</v>
-      </c>
-      <c r="G202" t="s">
-        <v>34</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>37</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I203" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J203" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>24</v>
-      </c>
-      <c r="G204" t="s">
-        <v>37</v>
-      </c>
-      <c r="H204" t="s"/>
-      <c r="I204" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G204" t="s"/>
+      <c r="H204" t="s">
+        <v>40</v>
+      </c>
+      <c r="I204" t="s"/>
+      <c r="J204" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H205" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I205" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J205" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>24</v>
-      </c>
-      <c r="G206" t="s">
-        <v>37</v>
-      </c>
-      <c r="H206" t="s"/>
-      <c r="I206" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G206" t="s"/>
+      <c r="H206" t="s">
+        <v>40</v>
+      </c>
+      <c r="I206" t="s"/>
+      <c r="J206" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H207" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I207" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J207" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H208" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I208" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J208" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>24</v>
-      </c>
-      <c r="G209" t="s">
-        <v>40</v>
-      </c>
-      <c r="H209" t="s"/>
-      <c r="I209" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G209" t="s"/>
+      <c r="H209" t="s">
+        <v>43</v>
+      </c>
+      <c r="I209" t="s"/>
+      <c r="J209" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I210" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J210" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>24</v>
-      </c>
-      <c r="G211" t="s">
-        <v>40</v>
-      </c>
-      <c r="H211" t="s"/>
-      <c r="I211" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G211" t="s"/>
+      <c r="H211" t="s">
+        <v>43</v>
+      </c>
+      <c r="I211" t="s"/>
+      <c r="J211" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I212" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J212" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G213" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H213" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I213" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J213" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G214" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H214" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I214" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J214" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I215" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J215" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>24</v>
-      </c>
-      <c r="G216" t="s">
-        <v>31</v>
-      </c>
-      <c r="H216" t="s"/>
-      <c r="I216" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G216" t="s"/>
+      <c r="H216" t="s">
+        <v>34</v>
+      </c>
+      <c r="I216" t="s"/>
+      <c r="J216" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H217" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I217" t="s">
-        <v>251</v>
+        <v>16</v>
+      </c>
+      <c r="J217" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
